--- a/data/strategies/国金场内策略结果.xlsx
+++ b/data/strategies/国金场内策略结果.xlsx
@@ -18,15 +18,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="208">
+  <si>
+    <t>易方达创业板ETF</t>
+  </si>
+  <si>
+    <t>广发中证全指可选消费ETF</t>
+  </si>
   <si>
     <t>国泰中证全指家电ETF</t>
   </si>
   <si>
-    <t>广发中证全指可选消费ETF</t>
-  </si>
-  <si>
-    <t>易方达创业板ETF</t>
+    <t>方正富邦中证保险</t>
   </si>
   <si>
     <t>国富中证军工龙头ETF</t>
@@ -35,9 +38,6 @@
     <t>平安中证新能源汽车产业ETF</t>
   </si>
   <si>
-    <t>方正富邦中证保险</t>
-  </si>
-  <si>
     <t>指数基金精选</t>
   </si>
   <si>
@@ -68,73 +68,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>2.65%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>15.81%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>4.54%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>16.45%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>17.97%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>23.26%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>4.08%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>12.87%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>6.26%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>19.89%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>18.57%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>23.12%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -143,13 +140,16 @@
     <t>场内代码</t>
   </si>
   <si>
+    <t>159915.OF</t>
+  </si>
+  <si>
+    <t>159936.OF</t>
+  </si>
+  <si>
     <t>159996.OF</t>
   </si>
   <si>
-    <t>159936.OF</t>
-  </si>
-  <si>
-    <t>159915.OF</t>
+    <t>167301.OF</t>
   </si>
   <si>
     <t>512710.OF</t>
@@ -158,117 +158,114 @@
     <t>515700.OF</t>
   </si>
   <si>
-    <t>167301.OF</t>
-  </si>
-  <si>
-    <t>-1.94%</t>
-  </si>
-  <si>
-    <t>-0.89%</t>
-  </si>
-  <si>
-    <t>3.96%</t>
-  </si>
-  <si>
-    <t>4.67%</t>
-  </si>
-  <si>
-    <t>17.16%</t>
-  </si>
-  <si>
-    <t>-6.54%</t>
-  </si>
-  <si>
-    <t>7.60%</t>
-  </si>
-  <si>
-    <t>5.87%</t>
-  </si>
-  <si>
-    <t>27.54%</t>
-  </si>
-  <si>
-    <t>15.13%</t>
-  </si>
-  <si>
-    <t>47.36%</t>
-  </si>
-  <si>
-    <t>-4.89%</t>
-  </si>
-  <si>
-    <t>2.82%</t>
-  </si>
-  <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>13.17%</t>
-  </si>
-  <si>
-    <t>-7.64%</t>
-  </si>
-  <si>
-    <t>23.56%</t>
-  </si>
-  <si>
-    <t>-9.23%</t>
-  </si>
-  <si>
-    <t>9.97%</t>
-  </si>
-  <si>
-    <t>11.76%</t>
-  </si>
-  <si>
-    <t>24.78%</t>
-  </si>
-  <si>
-    <t>27.30%</t>
-  </si>
-  <si>
-    <t>41.84%</t>
-  </si>
-  <si>
-    <t>14.25%</t>
-  </si>
-  <si>
-    <t>15.06%</t>
-  </si>
-  <si>
-    <t>15.79%</t>
-  </si>
-  <si>
-    <t>25.01%</t>
-  </si>
-  <si>
-    <t>26.31%</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>18.29%</t>
-  </si>
-  <si>
-    <t>20.26%</t>
-  </si>
-  <si>
-    <t>19.87%</t>
-  </si>
-  <si>
-    <t>30.79%</t>
-  </si>
-  <si>
-    <t>35.55%</t>
-  </si>
-  <si>
-    <t>42.46%</t>
+    <t>6.42%</t>
+  </si>
+  <si>
+    <t>-1.30%</t>
+  </si>
+  <si>
+    <t>-2.45%</t>
+  </si>
+  <si>
+    <t>-10.46%</t>
+  </si>
+  <si>
+    <t>2.04%</t>
+  </si>
+  <si>
+    <t>27.72%</t>
+  </si>
+  <si>
+    <t>21.95%</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>-0.33%</t>
+  </si>
+  <si>
+    <t>-9.80%</t>
+  </si>
+  <si>
+    <t>11.42%</t>
+  </si>
+  <si>
+    <t>57.99%</t>
+  </si>
+  <si>
+    <t>15.29%</t>
+  </si>
+  <si>
+    <t>0.10%</t>
+  </si>
+  <si>
+    <t>-0.23%</t>
+  </si>
+  <si>
+    <t>-15.08%</t>
+  </si>
+  <si>
+    <t>-7.39%</t>
+  </si>
+  <si>
+    <t>43.99%</t>
+  </si>
+  <si>
+    <t>30.09%</t>
+  </si>
+  <si>
+    <t>14.90%</t>
+  </si>
+  <si>
+    <t>13.95%</t>
+  </si>
+  <si>
+    <t>18.28%</t>
+  </si>
+  <si>
+    <t>35.48%</t>
+  </si>
+  <si>
+    <t>39.73%</t>
+  </si>
+  <si>
+    <t>26.55%</t>
+  </si>
+  <si>
+    <t>15.67%</t>
+  </si>
+  <si>
+    <t>15.26%</t>
+  </si>
+  <si>
+    <t>19.66%</t>
+  </si>
+  <si>
+    <t>29.09%</t>
+  </si>
+  <si>
+    <t>37.61%</t>
+  </si>
+  <si>
+    <t>30.92%</t>
+  </si>
+  <si>
+    <t>19.60%</t>
+  </si>
+  <si>
+    <t>20.05%</t>
   </si>
   <si>
     <t>23.40%</t>
   </si>
   <si>
+    <t>36.10%</t>
+  </si>
+  <si>
+    <t>42.17%</t>
+  </si>
+  <si>
     <t>股票代码</t>
   </si>
   <si>
@@ -281,304 +278,307 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>000333.SZ</t>
+  </si>
+  <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>600690.SH</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
+    <t>603486.SH</t>
+  </si>
+  <si>
+    <t>002415.SZ</t>
   </si>
   <si>
     <t>300750.SZ</t>
   </si>
   <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
-    <t>601318.SH</t>
-  </si>
-  <si>
-    <t>600690.SH</t>
-  </si>
-  <si>
-    <t>000651.SZ</t>
-  </si>
-  <si>
-    <t>601601.SH</t>
-  </si>
-  <si>
-    <t>603486.SH</t>
-  </si>
-  <si>
-    <t>002415.SZ</t>
+    <t>688169.SH</t>
+  </si>
+  <si>
+    <t>002049.SZ</t>
+  </si>
+  <si>
+    <t>600893.SH</t>
+  </si>
+  <si>
+    <t>601888.SH</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>002508.SZ</t>
   </si>
   <si>
     <t>300014.SZ</t>
   </si>
   <si>
-    <t>601628.SH</t>
-  </si>
-  <si>
     <t>300124.SZ</t>
   </si>
   <si>
-    <t>002594.SZ</t>
-  </si>
-  <si>
-    <t>300059.SZ</t>
-  </si>
-  <si>
-    <t>601888.SH</t>
-  </si>
-  <si>
-    <t>600893.SH</t>
-  </si>
-  <si>
-    <t>002508.SZ</t>
-  </si>
-  <si>
-    <t>601336.SH</t>
-  </si>
-  <si>
-    <t>300760.SZ</t>
+    <t>002179.SZ</t>
   </si>
   <si>
     <t>002460.SZ</t>
   </si>
   <si>
-    <t>300450.SZ</t>
-  </si>
-  <si>
-    <t>4.01%</t>
-  </si>
-  <si>
-    <t>3.99%</t>
-  </si>
-  <si>
-    <t>3.91%</t>
-  </si>
-  <si>
-    <t>3.66%</t>
-  </si>
-  <si>
-    <t>3.47%</t>
-  </si>
-  <si>
-    <t>3.44%</t>
-  </si>
-  <si>
-    <t>2.53%</t>
-  </si>
-  <si>
-    <t>2.13%</t>
-  </si>
-  <si>
-    <t>2.10%</t>
-  </si>
-  <si>
-    <t>1.77%</t>
-  </si>
-  <si>
-    <t>1.64%</t>
-  </si>
-  <si>
-    <t>1.53%</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>1.33%</t>
-  </si>
-  <si>
-    <t>1.29%</t>
-  </si>
-  <si>
-    <t>1.24%</t>
-  </si>
-  <si>
-    <t>1.17%</t>
-  </si>
-  <si>
-    <t>1.14%</t>
-  </si>
-  <si>
-    <t>1.00%</t>
+    <t>603799.SH</t>
+  </si>
+  <si>
+    <t>000768.SZ</t>
+  </si>
+  <si>
+    <t>603195.SH</t>
+  </si>
+  <si>
+    <t>419.39%</t>
+  </si>
+  <si>
+    <t>384.52%</t>
+  </si>
+  <si>
+    <t>307.35%</t>
+  </si>
+  <si>
+    <t>263.59%</t>
+  </si>
+  <si>
+    <t>248.81%</t>
+  </si>
+  <si>
+    <t>190.28%</t>
+  </si>
+  <si>
+    <t>170.82%</t>
+  </si>
+  <si>
+    <t>160.17%</t>
+  </si>
+  <si>
+    <t>137.17%</t>
+  </si>
+  <si>
+    <t>118.77%</t>
+  </si>
+  <si>
+    <t>118.41%</t>
+  </si>
+  <si>
+    <t>107.56%</t>
+  </si>
+  <si>
+    <t>105.09%</t>
+  </si>
+  <si>
+    <t>101.53%</t>
+  </si>
+  <si>
+    <t>99.11%</t>
+  </si>
+  <si>
+    <t>91.02%</t>
+  </si>
+  <si>
+    <t>83.98%</t>
+  </si>
+  <si>
+    <t>83.60%</t>
+  </si>
+  <si>
+    <t>76.18%</t>
+  </si>
+  <si>
+    <t>75.14%</t>
+  </si>
+  <si>
+    <t>美的集团</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>海尔智家</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>科沃斯</t>
+  </si>
+  <si>
+    <t>海康威视</t>
   </si>
   <si>
     <t>宁德时代</t>
   </si>
   <si>
-    <t>美的集团</t>
-  </si>
-  <si>
-    <t>中国平安</t>
-  </si>
-  <si>
-    <t>海尔智家</t>
-  </si>
-  <si>
-    <t>格力电器</t>
-  </si>
-  <si>
-    <t>中国太保</t>
-  </si>
-  <si>
-    <t>科沃斯</t>
-  </si>
-  <si>
-    <t>海康威视</t>
+    <t>石头科技</t>
+  </si>
+  <si>
+    <t>紫光国微</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>中国中免</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>老板电器</t>
   </si>
   <si>
     <t>亿纬锂能</t>
   </si>
   <si>
-    <t>中国人寿</t>
-  </si>
-  <si>
     <t>汇川技术</t>
   </si>
   <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
-    <t>东方财富</t>
-  </si>
-  <si>
-    <t>中国中免</t>
-  </si>
-  <si>
-    <t>航发动力</t>
-  </si>
-  <si>
-    <t>老板电器</t>
-  </si>
-  <si>
-    <t>新华保险</t>
-  </si>
-  <si>
-    <t>迈瑞医疗</t>
+    <t>中航光电</t>
   </si>
   <si>
     <t>赣锋锂业</t>
   </si>
   <si>
-    <t>先导智能</t>
+    <t>华友钴业</t>
+  </si>
+  <si>
+    <t>中航西飞</t>
+  </si>
+  <si>
+    <t>公牛集团</t>
+  </si>
+  <si>
+    <t>暖通空调</t>
+  </si>
+  <si>
+    <t>空调</t>
+  </si>
+  <si>
+    <t>电冰箱</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>服务机器人</t>
+  </si>
+  <si>
+    <t>前端音视频产品</t>
   </si>
   <si>
     <t>动力电池系统</t>
   </si>
   <si>
-    <t>暖通空调</t>
-  </si>
-  <si>
-    <t>产险:机动车辆保险</t>
-  </si>
-  <si>
-    <t>电冰箱</t>
-  </si>
-  <si>
-    <t>空调</t>
-  </si>
-  <si>
-    <t>个人寿险</t>
-  </si>
-  <si>
-    <t>服务机器人</t>
-  </si>
-  <si>
-    <t>前端音视频产品</t>
+    <t>智能扫地机</t>
+  </si>
+  <si>
+    <t>集成电路</t>
+  </si>
+  <si>
+    <t>航空发动机制造及衍生产品</t>
+  </si>
+  <si>
+    <t>商品贸易-免税商品</t>
+  </si>
+  <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>油烟机</t>
   </si>
   <si>
     <t>锂离子电池</t>
   </si>
   <si>
-    <t>人寿保险</t>
-  </si>
-  <si>
     <t>变频器类</t>
   </si>
   <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>证券经纪业务</t>
-  </si>
-  <si>
-    <t>商品贸易-免税商品</t>
-  </si>
-  <si>
-    <t>航空发动机制造及衍生产品</t>
-  </si>
-  <si>
-    <t>油烟机</t>
-  </si>
-  <si>
-    <t>寿险:保险营销员:续期业务</t>
-  </si>
-  <si>
-    <t>生命信息与支持类产品</t>
+    <t>电连接器</t>
   </si>
   <si>
     <t>锂系列产品</t>
   </si>
   <si>
-    <t>锂电池设备</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>-22.20%</t>
-  </si>
-  <si>
-    <t>-22.18%</t>
-  </si>
-  <si>
-    <t>-5.77%</t>
-  </si>
-  <si>
-    <t>-14.05%</t>
-  </si>
-  <si>
-    <t>-16.40%</t>
-  </si>
-  <si>
-    <t>151.63%</t>
-  </si>
-  <si>
-    <t>36.18%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>-7.73%</t>
-  </si>
-  <si>
-    <t>17.94%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>36.19%</t>
-  </si>
-  <si>
-    <t>17.41%</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>14.96%</t>
-  </si>
-  <si>
-    <t>-18.16%</t>
-  </si>
-  <si>
-    <t>12.99%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>航空产品</t>
+  </si>
+  <si>
+    <t>电连接产品</t>
+  </si>
+  <si>
+    <t>-24.87%</t>
+  </si>
+  <si>
+    <t>-20.16%</t>
+  </si>
+  <si>
+    <t>-8.19%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>148.35%</t>
+  </si>
+  <si>
+    <t>35.01%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>7.46%</t>
+  </si>
+  <si>
+    <t>27.29%</t>
+  </si>
+  <si>
+    <t>-4.93%</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>21.83%</t>
+  </si>
+  <si>
+    <t>62.80%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>65.23%</t>
+  </si>
+  <si>
+    <t>104.69%</t>
+  </si>
+  <si>
+    <t>-28.18%</t>
+  </si>
+  <si>
+    <t>13.18%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -587,67 +587,61 @@
     <t>标签占比</t>
   </si>
   <si>
-    <t>家电家具</t>
-  </si>
-  <si>
-    <t>保险</t>
+    <t>家用电器</t>
   </si>
   <si>
     <t>锂电池</t>
   </si>
   <si>
-    <t>机械设备</t>
+    <t>国防军工</t>
   </si>
   <si>
     <t>电子</t>
   </si>
   <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>商业贸易</t>
+  </si>
+  <si>
     <t xml:space="preserve">锂电池 </t>
   </si>
   <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>证券</t>
-  </si>
-  <si>
-    <t>商业贸易</t>
-  </si>
-  <si>
-    <t>军工</t>
-  </si>
-  <si>
-    <t>医疗器械</t>
-  </si>
-  <si>
-    <t>28.12%</t>
-  </si>
-  <si>
-    <t>23.47%</t>
-  </si>
-  <si>
-    <t>13.93%</t>
-  </si>
-  <si>
-    <t>5.73%</t>
-  </si>
-  <si>
-    <t>4.83%</t>
-  </si>
-  <si>
-    <t>4.76%</t>
-  </si>
-  <si>
-    <t>3.72%</t>
-  </si>
-  <si>
-    <t>3.40%</t>
-  </si>
-  <si>
-    <t>3.01%</t>
-  </si>
-  <si>
-    <t>2.92%</t>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>电气设备</t>
+  </si>
+  <si>
+    <t>25.00%</t>
+  </si>
+  <si>
+    <t>6.86%</t>
+  </si>
+  <si>
+    <t>4.40%</t>
+  </si>
+  <si>
+    <t>4.06%</t>
+  </si>
+  <si>
+    <t>2.93%</t>
+  </si>
+  <si>
+    <t>2.11%</t>
+  </si>
+  <si>
+    <t>1.82%</t>
+  </si>
+  <si>
+    <t>1.56%</t>
+  </si>
+  <si>
+    <t>1.52%</t>
+  </si>
+  <si>
+    <t>1.16%</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1086,25 +1080,25 @@
         <v>44200</v>
       </c>
       <c r="B3">
-        <v>1.012875845202129</v>
+        <v>1.037612303943962</v>
       </c>
       <c r="C3">
         <v>1.015851517431653</v>
       </c>
       <c r="D3">
-        <v>1.037610773846905</v>
+        <v>1.012875845202129</v>
       </c>
       <c r="E3">
+        <v>0.9870921901829594</v>
+      </c>
+      <c r="F3">
         <v>1.067325202803377</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.07818653347421</v>
       </c>
-      <c r="G3">
-        <v>0.9871031746031745</v>
-      </c>
       <c r="H3">
-        <v>1.032367288056669</v>
+        <v>1.032365946413048</v>
       </c>
       <c r="I3">
         <v>1.018168368380631</v>
@@ -1118,25 +1112,25 @@
         <v>44201</v>
       </c>
       <c r="B4">
-        <v>1.0337361530715</v>
+        <v>1.044221105527638</v>
       </c>
       <c r="C4">
         <v>1.023275645849009</v>
       </c>
       <c r="D4">
-        <v>1.044239759960924</v>
+        <v>1.0337361530715</v>
       </c>
       <c r="E4">
+        <v>0.9761975250162828</v>
+      </c>
+      <c r="F4">
         <v>1.085591302908228</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.091441744308904</v>
       </c>
-      <c r="G4">
-        <v>0.9761904761904762</v>
-      </c>
       <c r="H4">
-        <v>1.042070057994978</v>
+        <v>1.042067384432191</v>
       </c>
       <c r="I4">
         <v>1.027111201157197</v>
@@ -1150,25 +1144,25 @@
         <v>44202</v>
       </c>
       <c r="B5">
-        <v>1.02639907926917</v>
+        <v>1.049977158519872</v>
       </c>
       <c r="C5">
         <v>1.014296463506396</v>
       </c>
       <c r="D5">
-        <v>1.04999651105994</v>
+        <v>1.02639907926917</v>
       </c>
       <c r="E5">
+        <v>0.9940197761856829</v>
+      </c>
+      <c r="F5">
         <v>1.096683405993047</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.079195082124676</v>
       </c>
-      <c r="G5">
-        <v>0.994047619047619</v>
-      </c>
       <c r="H5">
-        <v>1.042912503666583</v>
+        <v>1.042904456729278</v>
       </c>
       <c r="I5">
         <v>1.025290909062353</v>
@@ -1182,25 +1176,25 @@
         <v>44203</v>
       </c>
       <c r="B6">
-        <v>1.041145158969932</v>
+        <v>1.065905283995736</v>
       </c>
       <c r="C6">
         <v>1.024780536744419</v>
       </c>
       <c r="D6">
-        <v>1.065906077733584</v>
+        <v>1.041145158969932</v>
       </c>
       <c r="E6">
+        <v>1.008940730653088</v>
+      </c>
+      <c r="F6">
         <v>1.127366039401799</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.111756795696859</v>
       </c>
-      <c r="G6">
-        <v>1.008928571428571</v>
-      </c>
       <c r="H6">
-        <v>1.062335038831451</v>
+        <v>1.062336703967559</v>
       </c>
       <c r="I6">
         <v>1.026858339183711</v>
@@ -1214,25 +1208,25 @@
         <v>44204</v>
       </c>
       <c r="B7">
-        <v>1.049201553733276</v>
+        <v>1.061946094106898</v>
       </c>
       <c r="C7">
         <v>1.02879357913218</v>
       </c>
       <c r="D7">
-        <v>1.061963575465773</v>
+        <v>1.049201553733276</v>
       </c>
       <c r="E7">
+        <v>1.006927586002724</v>
+      </c>
+      <c r="F7">
         <v>1.100160035318139</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.098261454231102</v>
       </c>
-      <c r="G7">
-        <v>1.006944444444444</v>
-      </c>
       <c r="H7">
-        <v>1.05735695280869</v>
+        <v>1.057350927770656</v>
       </c>
       <c r="I7">
         <v>1.029917812005761</v>
@@ -1246,25 +1240,25 @@
         <v>44207</v>
       </c>
       <c r="B8">
-        <v>1.029707955689829</v>
+        <v>1.042424242424242</v>
       </c>
       <c r="C8">
         <v>1.029245046400803</v>
       </c>
       <c r="D8">
-        <v>1.042425511129719</v>
+        <v>1.029707955689829</v>
       </c>
       <c r="E8">
+        <v>1.001006572325182</v>
+      </c>
+      <c r="F8">
         <v>1.072843662049556</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.055998463163961</v>
       </c>
-      <c r="G8">
-        <v>1.000992063492063</v>
-      </c>
       <c r="H8">
-        <v>1.038288578629867</v>
+        <v>1.03829050121374</v>
       </c>
       <c r="I8">
         <v>1.013866573688848</v>
@@ -1278,25 +1272,25 @@
         <v>44208</v>
       </c>
       <c r="B9">
-        <v>1.065242411163861</v>
+        <v>1.071874524135831</v>
       </c>
       <c r="C9">
         <v>1.049410584399298</v>
       </c>
       <c r="D9">
-        <v>1.071872165236201</v>
+        <v>1.065242411163861</v>
       </c>
       <c r="E9">
+        <v>1.036710284800758</v>
+      </c>
+      <c r="F9">
         <v>1.113128414546659</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.083181250600327</v>
       </c>
-      <c r="G9">
-        <v>1.036706349206349</v>
-      </c>
       <c r="H9">
-        <v>1.069786905092907</v>
+        <v>1.069787967211995</v>
       </c>
       <c r="I9">
         <v>1.027660901099557</v>
@@ -1310,25 +1304,25 @@
         <v>44209</v>
       </c>
       <c r="B10">
-        <v>1.073514602215508</v>
+        <v>1.054971828841176</v>
       </c>
       <c r="C10">
         <v>1.045949335339855</v>
       </c>
       <c r="D10">
-        <v>1.054985695345754</v>
+        <v>1.073514602215508</v>
       </c>
       <c r="E10">
+        <v>1.023802474983717</v>
+      </c>
+      <c r="F10">
         <v>1.09370343800011</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.045961002785516</v>
       </c>
-      <c r="G10">
-        <v>1.023809523809524</v>
-      </c>
       <c r="H10">
-        <v>1.057113554502503</v>
+        <v>1.057109723877717</v>
       </c>
       <c r="I10">
         <v>1.020386015005238</v>
@@ -1342,25 +1336,25 @@
         <v>44210</v>
       </c>
       <c r="B11">
-        <v>1.051647245000719</v>
+        <v>1.041114664230242</v>
       </c>
       <c r="C11">
         <v>1.024028091296714</v>
       </c>
       <c r="D11">
-        <v>1.041134603307515</v>
+        <v>1.051647245000719</v>
       </c>
       <c r="E11">
+        <v>1.018828823494582</v>
+      </c>
+      <c r="F11">
         <v>1.03184150985045</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.018345980213236</v>
       </c>
-      <c r="G11">
-        <v>1.018849206349206</v>
-      </c>
       <c r="H11">
-        <v>1.032516087818088</v>
+        <v>1.03250904257444</v>
       </c>
       <c r="I11">
         <v>1.011430617658561</v>
@@ -1374,25 +1368,25 @@
         <v>44211</v>
       </c>
       <c r="B12">
-        <v>1.056394763343404</v>
+        <v>1.041419217298614</v>
       </c>
       <c r="C12">
         <v>1.028342111863557</v>
       </c>
       <c r="D12">
-        <v>1.041413718512316</v>
+        <v>1.056394763343404</v>
       </c>
       <c r="E12">
+        <v>1.043637870803481</v>
+      </c>
+      <c r="F12">
         <v>1.02505380497765</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.040678128902123</v>
       </c>
-      <c r="G12">
-        <v>1.043650793650793</v>
-      </c>
       <c r="H12">
-        <v>1.040220422280262</v>
+        <v>1.040219583610425</v>
       </c>
       <c r="I12">
         <v>1.007914108598721</v>
@@ -1406,25 +1400,25 @@
         <v>44214</v>
       </c>
       <c r="B13">
-        <v>1.069486404833837</v>
+        <v>1.061245622049642</v>
       </c>
       <c r="C13">
         <v>1.037020316027088</v>
       </c>
       <c r="D13">
-        <v>1.061265787453771</v>
+        <v>1.069486404833837</v>
       </c>
       <c r="E13">
+        <v>1.046598377642252</v>
+      </c>
+      <c r="F13">
         <v>1.048065780034214</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.050859667659207</v>
       </c>
-      <c r="G13">
-        <v>1.046626984126984</v>
-      </c>
       <c r="H13">
-        <v>1.053536350634646</v>
+        <v>1.05352802658111</v>
       </c>
       <c r="I13">
         <v>1.023142367573358</v>
@@ -1438,25 +1432,25 @@
         <v>44215</v>
       </c>
       <c r="B14">
-        <v>1.051359516616314</v>
+        <v>1.039500532967869</v>
       </c>
       <c r="C14">
         <v>1.022523200401304</v>
       </c>
       <c r="D14">
-        <v>1.039494801479311</v>
+        <v>1.051359516616314</v>
       </c>
       <c r="E14">
+        <v>1.051572029131387</v>
+      </c>
+      <c r="F14">
         <v>1.029247834004746</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.02165978292191</v>
       </c>
-      <c r="G14">
-        <v>1.051587301587302</v>
-      </c>
       <c r="H14">
-        <v>1.036923581456414</v>
+        <v>1.036922436885739</v>
       </c>
       <c r="I14">
         <v>1.017160061629216</v>
@@ -1470,25 +1464,25 @@
         <v>44216</v>
       </c>
       <c r="B15">
-        <v>1.054308732556467</v>
+        <v>1.080006091061367</v>
       </c>
       <c r="C15">
         <v>1.031101078505142</v>
       </c>
       <c r="D15">
-        <v>1.080001395576024</v>
+        <v>1.054308732556467</v>
       </c>
       <c r="E15">
+        <v>1.02776955414767</v>
+      </c>
+      <c r="F15">
         <v>1.046796534407593</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.069685909134569</v>
       </c>
-      <c r="G15">
-        <v>1.027777777777778</v>
-      </c>
       <c r="H15">
-        <v>1.05316622060026</v>
+        <v>1.053165926152813</v>
       </c>
       <c r="I15">
         <v>1.026434284942462</v>
@@ -1502,25 +1496,25 @@
         <v>44217</v>
       </c>
       <c r="B16">
-        <v>1.071428571428571</v>
+        <v>1.106441297396071</v>
       </c>
       <c r="C16">
         <v>1.04484574868322</v>
       </c>
       <c r="D16">
-        <v>1.106447561230898</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="E16">
+        <v>1.025756409497306</v>
+      </c>
+      <c r="F16">
         <v>1.062027481927046</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.099029872250505</v>
       </c>
-      <c r="G16">
-        <v>1.025793650793651</v>
-      </c>
       <c r="H16">
-        <v>1.070329739580057</v>
+        <v>1.07032290061864</v>
       </c>
       <c r="I16">
         <v>1.04011081950838</v>
@@ -1534,25 +1528,25 @@
         <v>44218</v>
       </c>
       <c r="B17">
-        <v>1.06855128758452</v>
+        <v>1.1315060149231</v>
       </c>
       <c r="C17">
         <v>1.048758465011287</v>
       </c>
       <c r="D17">
-        <v>1.131498150861768</v>
+        <v>1.06855128758452</v>
       </c>
       <c r="E17">
+        <v>1.001953934513589</v>
+      </c>
+      <c r="F17">
         <v>1.075713260857569</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.13019882816252</v>
       </c>
-      <c r="G17">
-        <v>1.001984126984127</v>
-      </c>
       <c r="H17">
-        <v>1.078508089841583</v>
+        <v>1.078505133783269</v>
       </c>
       <c r="I17">
         <v>1.042515364113389</v>
@@ -1566,25 +1560,25 @@
         <v>44221</v>
       </c>
       <c r="B18">
-        <v>1.070421522083153</v>
+        <v>1.130440079183798</v>
       </c>
       <c r="C18">
         <v>1.05472786556308</v>
       </c>
       <c r="D18">
-        <v>1.130451468843765</v>
+        <v>1.070421522083153</v>
       </c>
       <c r="E18">
+        <v>1.012907809817041</v>
+      </c>
+      <c r="F18">
         <v>1.079962474477126</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1.1354336759197</v>
       </c>
-      <c r="G18">
-        <v>1.012896825396825</v>
-      </c>
       <c r="H18">
-        <v>1.082627724388894</v>
+        <v>1.082627094119932</v>
       </c>
       <c r="I18">
         <v>1.043693292561303</v>
@@ -1598,25 +1592,25 @@
         <v>44222</v>
       </c>
       <c r="B19">
-        <v>1.042511868795857</v>
+        <v>1.097822445561139</v>
       </c>
       <c r="C19">
         <v>1.033860045146727</v>
       </c>
       <c r="D19">
-        <v>1.097829879282674</v>
+        <v>1.042511868795857</v>
       </c>
       <c r="E19">
+        <v>0.99005269702173</v>
+      </c>
+      <c r="F19">
         <v>1.004414767396943</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1.107674574968783</v>
       </c>
-      <c r="G19">
-        <v>0.9900793650793651</v>
-      </c>
       <c r="H19">
-        <v>1.048472662504479</v>
+        <v>1.048467175551526</v>
       </c>
       <c r="I19">
         <v>1.026047924411546</v>
@@ -1630,25 +1624,25 @@
         <v>44223</v>
       </c>
       <c r="B20">
-        <v>1.043303121852971</v>
+        <v>1.105436272270443</v>
       </c>
       <c r="C20">
         <v>1.038525206922498</v>
       </c>
       <c r="D20">
-        <v>1.105435768613495</v>
+        <v>1.043303121852971</v>
       </c>
       <c r="E20">
+        <v>0.9970394931612291</v>
+      </c>
+      <c r="F20">
         <v>1.010264334197892</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.120785707424839</v>
       </c>
-      <c r="G20">
-        <v>0.9970238095238093</v>
-      </c>
       <c r="H20">
-        <v>1.054737636803649</v>
+        <v>1.054740090080652</v>
       </c>
       <c r="I20">
         <v>1.02984870687015</v>
@@ -1662,25 +1656,25 @@
         <v>44224</v>
       </c>
       <c r="B21">
-        <v>1.008703783628255</v>
+        <v>1.065357088472666</v>
       </c>
       <c r="C21">
         <v>1.011336844745423</v>
       </c>
       <c r="D21">
-        <v>1.065347847323983</v>
+        <v>1.008703783628255</v>
       </c>
       <c r="E21">
+        <v>0.9761975250162828</v>
+      </c>
+      <c r="F21">
         <v>0.9872523591413277</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.073191816348093</v>
       </c>
-      <c r="G21">
-        <v>0.9761904761904762</v>
-      </c>
       <c r="H21">
-        <v>1.022006050654245</v>
+        <v>1.022008956207853</v>
       </c>
       <c r="I21">
         <v>1.007424090364388</v>
@@ -1694,25 +1688,25 @@
         <v>44225</v>
       </c>
       <c r="B22">
-        <v>1.001654438210329</v>
+        <v>1.054210446170245</v>
       </c>
       <c r="C22">
         <v>1.006621519939804</v>
       </c>
       <c r="D22">
-        <v>1.054218128532552</v>
+        <v>1.001654438210329</v>
       </c>
       <c r="E22">
+        <v>0.9523950500325655</v>
+      </c>
+      <c r="F22">
         <v>0.9572871254345786</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1.052300451445586</v>
       </c>
-      <c r="G22">
-        <v>0.9523809523809523</v>
-      </c>
       <c r="H22">
-        <v>1.006463020728714</v>
+        <v>1.006463598903995</v>
       </c>
       <c r="I22">
         <v>0.9967065120596316</v>
@@ -1726,25 +1720,25 @@
         <v>44228</v>
       </c>
       <c r="B23">
-        <v>1.010789814415192</v>
+        <v>1.06465661641541</v>
       </c>
       <c r="C23">
         <v>1.018008527715074</v>
       </c>
       <c r="D23">
-        <v>1.064650059311981</v>
+        <v>1.010789814415192</v>
       </c>
       <c r="E23">
+        <v>0.9612765705488779</v>
+      </c>
+      <c r="F23">
         <v>0.9554108492908781</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1.048554413600999</v>
       </c>
-      <c r="G23">
-        <v>0.9613095238095237</v>
-      </c>
       <c r="H23">
-        <v>1.012580471907906</v>
+        <v>1.012576840339495</v>
       </c>
       <c r="I23">
         <v>1.004110184997589</v>
@@ -1758,25 +1752,25 @@
         <v>44229</v>
       </c>
       <c r="B24">
-        <v>1.038052078837577</v>
+        <v>1.08774173899802</v>
       </c>
       <c r="C24">
         <v>1.049260095309757</v>
       </c>
       <c r="D24">
-        <v>1.087746842509246</v>
+        <v>1.038052078837577</v>
       </c>
       <c r="E24">
+        <v>0.9612765705488779</v>
+      </c>
+      <c r="F24">
         <v>0.9727939959163401</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.10436077226011</v>
       </c>
-      <c r="G24">
-        <v>0.9613095238095237</v>
-      </c>
       <c r="H24">
-        <v>1.038318442363724</v>
+        <v>1.038312478672382</v>
       </c>
       <c r="I24">
         <v>1.013770768841751</v>
@@ -1790,25 +1784,25 @@
         <v>44230</v>
       </c>
       <c r="B25">
-        <v>1.028341245863904</v>
+        <v>1.086066697121973</v>
       </c>
       <c r="C25">
         <v>1.043140205668422</v>
       </c>
       <c r="D25">
-        <v>1.086072151280441</v>
+        <v>1.028341245863904</v>
       </c>
       <c r="E25">
+        <v>0.9553555568713363</v>
+      </c>
+      <c r="F25">
         <v>0.9351581038574031</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1.104120641629046</v>
       </c>
-      <c r="G25">
-        <v>0.9553571428571428</v>
-      </c>
       <c r="H25">
-        <v>1.028549093530671</v>
+        <v>1.028547764801107</v>
       </c>
       <c r="I25">
         <v>1.00506038061224</v>
@@ -1822,25 +1816,25 @@
         <v>44231</v>
       </c>
       <c r="B26">
-        <v>1.022874406560207</v>
+        <v>1.078239683264809</v>
       </c>
       <c r="C26">
         <v>1.02979683972912</v>
       </c>
       <c r="D26">
-        <v>1.078256925546019</v>
+        <v>1.022874406560207</v>
       </c>
       <c r="E26">
+        <v>0.9662502220380128</v>
+      </c>
+      <c r="F26">
         <v>0.9255008001765906</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1.0789069253674</v>
       </c>
-      <c r="G26">
-        <v>0.9662698412698412</v>
-      </c>
       <c r="H26">
-        <v>1.020297427402688</v>
+        <v>1.020291036061672</v>
       </c>
       <c r="I26">
         <v>0.9939815709167896</v>
@@ -1854,25 +1848,25 @@
         <v>44232</v>
       </c>
       <c r="B27">
-        <v>1.025751690404258</v>
+        <v>1.07592507994518</v>
       </c>
       <c r="C27">
         <v>1.022222222222222</v>
       </c>
       <c r="D27">
-        <v>1.075919335705813</v>
+        <v>1.025751690404258</v>
       </c>
       <c r="E27">
+        <v>0.9801646041802357</v>
+      </c>
+      <c r="F27">
         <v>0.9036477015617239</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.040774181154548</v>
       </c>
-      <c r="G27">
-        <v>0.9801587301587301</v>
-      </c>
       <c r="H27">
-        <v>1.012354630486598</v>
+        <v>1.012356660437697</v>
       </c>
       <c r="I27">
         <v>0.9800160512383169</v>
@@ -1886,25 +1880,25 @@
         <v>44235</v>
       </c>
       <c r="B28">
-        <v>1.02639907926917</v>
+        <v>1.104218059996954</v>
       </c>
       <c r="C28">
         <v>1.032054176072235</v>
       </c>
       <c r="D28">
-        <v>1.104214639592492</v>
+        <v>1.02639907926917</v>
       </c>
       <c r="E28">
+        <v>0.9722304458523299</v>
+      </c>
+      <c r="F28">
         <v>0.908503945698361</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.066420132552108</v>
       </c>
-      <c r="G28">
-        <v>0.9722222222222221</v>
-      </c>
       <c r="H28">
-        <v>1.023002815254071</v>
+        <v>1.02300473287948</v>
       </c>
       <c r="I28">
         <v>0.9930973392952219</v>
@@ -1918,25 +1912,25 @@
         <v>44236</v>
       </c>
       <c r="B29">
-        <v>1.045245288447705</v>
+        <v>1.123130805542866</v>
       </c>
       <c r="C29">
         <v>1.052821670428894</v>
       </c>
       <c r="D29">
-        <v>1.123124694717745</v>
+        <v>1.045245288447705</v>
       </c>
       <c r="E29">
+        <v>0.9741843803659186</v>
+      </c>
+      <c r="F29">
         <v>0.9604326472049003</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.100374603784459</v>
       </c>
-      <c r="G29">
-        <v>0.9742063492063491</v>
-      </c>
       <c r="H29">
-        <v>1.046849287226781</v>
+        <v>1.04684721406574</v>
       </c>
       <c r="I29">
         <v>1.014256075362292</v>
@@ -1950,25 +1944,25 @@
         <v>44237</v>
       </c>
       <c r="B30">
-        <v>1.05732988059272</v>
+        <v>1.149840109639105</v>
       </c>
       <c r="C30">
         <v>1.075545522949586</v>
       </c>
       <c r="D30">
-        <v>1.14984997557742</v>
+        <v>1.05732988059272</v>
       </c>
       <c r="E30">
+        <v>0.9831251110190065</v>
+      </c>
+      <c r="F30">
         <v>0.9634126151978367</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.116319277687062</v>
       </c>
-      <c r="G30">
-        <v>0.9831349206349206</v>
-      </c>
       <c r="H30">
-        <v>1.062197821704439</v>
+        <v>1.062194377074389</v>
       </c>
       <c r="I30">
         <v>1.024824449396979</v>
@@ -1982,25 +1976,25 @@
         <v>44245</v>
       </c>
       <c r="B31">
-        <v>1.035462523377931</v>
+        <v>1.118197045835237</v>
       </c>
       <c r="C31">
         <v>1.069525959367946</v>
       </c>
       <c r="D31">
-        <v>1.118205289233131</v>
+        <v>1.035462523377931</v>
       </c>
       <c r="E31">
+        <v>1.013855172005447</v>
+      </c>
+      <c r="F31">
         <v>0.9481816676783842</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1.101239074056287</v>
       </c>
-      <c r="G31">
-        <v>1.013888888888889</v>
-      </c>
       <c r="H31">
-        <v>1.050658901020938</v>
+        <v>1.050652194808843</v>
       </c>
       <c r="I31">
         <v>1.038860644782327</v>
@@ -2014,25 +2008,25 @@
         <v>44246</v>
       </c>
       <c r="B32">
-        <v>1.032441375341677</v>
+        <v>1.106532663316583</v>
       </c>
       <c r="C32">
         <v>1.071281665412591</v>
       </c>
       <c r="D32">
-        <v>1.106552229432698</v>
+        <v>1.032441375341677</v>
       </c>
       <c r="E32">
+        <v>1.032743205636805</v>
+      </c>
+      <c r="F32">
         <v>0.9501131284145466</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1.07674574968783</v>
       </c>
-      <c r="G32">
-        <v>1.032738095238095</v>
-      </c>
       <c r="H32">
-        <v>1.047430516767835</v>
+        <v>1.047427370104418</v>
       </c>
       <c r="I32">
         <v>1.052829305603327</v>
@@ -2046,25 +2040,25 @@
         <v>44249</v>
       </c>
       <c r="B33">
-        <v>0.9864767659329592</v>
+        <v>1.057103700319781</v>
       </c>
       <c r="C33">
         <v>1.030850263355907</v>
       </c>
       <c r="D33">
-        <v>1.05711394878236</v>
+        <v>0.9864767659329592</v>
       </c>
       <c r="E33">
+        <v>1.023802474983717</v>
+      </c>
+      <c r="F33">
         <v>0.9139672203520777</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>1.056910959562002</v>
       </c>
-      <c r="G33">
-        <v>1.023809523809524</v>
-      </c>
       <c r="H33">
-        <v>1.01254883800499</v>
+        <v>1.012545730988604</v>
       </c>
       <c r="I33">
         <v>1.045538713796369</v>
@@ -2078,25 +2072,25 @@
         <v>44250</v>
       </c>
       <c r="B34">
-        <v>0.9871241547978707</v>
+        <v>1.048271661336988</v>
       </c>
       <c r="C34">
         <v>1.018610484073238</v>
       </c>
       <c r="D34">
-        <v>1.048286930430535</v>
+        <v>0.9871241547978707</v>
       </c>
       <c r="E34">
+        <v>1.048611522292616</v>
+      </c>
+      <c r="F34">
         <v>0.93846917940511</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1.033618288348862</v>
       </c>
-      <c r="G34">
-        <v>1.048611111111111</v>
-      </c>
       <c r="H34">
-        <v>1.012978576486429</v>
+        <v>1.012975584344946</v>
       </c>
       <c r="I34">
         <v>1.041481928221752</v>
@@ -2110,25 +2104,25 @@
         <v>44251</v>
       </c>
       <c r="B35">
-        <v>0.991296216371745</v>
+        <v>1.012973960712654</v>
       </c>
       <c r="C35">
         <v>1.007424128417356</v>
       </c>
       <c r="D35">
-        <v>1.012978857023236</v>
+        <v>0.991296216371745</v>
       </c>
       <c r="E35">
+        <v>1.02776955414767</v>
+      </c>
+      <c r="F35">
         <v>0.9351029192649412</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.9825665161848046</v>
       </c>
-      <c r="G35">
-        <v>1.027777777777778</v>
-      </c>
       <c r="H35">
-        <v>0.9937857159257282</v>
+        <v>0.9937835031190956</v>
       </c>
       <c r="I35">
         <v>1.026555218929781</v>
@@ -2142,25 +2136,25 @@
         <v>44252</v>
       </c>
       <c r="B36">
-        <v>0.9933822471586822</v>
+        <v>1.002832343535861</v>
       </c>
       <c r="C36">
         <v>1.007975921745673</v>
       </c>
       <c r="D36">
-        <v>1.002826041448608</v>
+        <v>0.9933822471586822</v>
       </c>
       <c r="E36">
+        <v>1.06548641127361</v>
+      </c>
+      <c r="F36">
         <v>0.9542519728491805</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.9625396215541255</v>
       </c>
-      <c r="G36">
-        <v>1.06547619047619</v>
-      </c>
       <c r="H36">
-        <v>0.9977782137152335</v>
+        <v>0.997781007252297</v>
       </c>
       <c r="I36">
         <v>1.020737822968348</v>
@@ -2174,25 +2168,25 @@
         <v>44253</v>
       </c>
       <c r="B37">
-        <v>0.974104445403539</v>
+        <v>0.9816354499771585</v>
       </c>
       <c r="C37">
         <v>0.9890644594933534</v>
       </c>
       <c r="D37">
-        <v>0.9816481752843487</v>
+        <v>0.974104445403539</v>
       </c>
       <c r="E37">
+        <v>1.023802474983717</v>
+      </c>
+      <c r="F37">
         <v>0.9219689862590364</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.9374699836711171</v>
       </c>
-      <c r="G37">
-        <v>1.023809523809524</v>
-      </c>
       <c r="H37">
-        <v>0.9719974671225321</v>
+        <v>0.971993864737223</v>
       </c>
       <c r="I37">
         <v>0.9995665223311676</v>
@@ -2206,25 +2200,25 @@
         <v>44256</v>
       </c>
       <c r="B38">
-        <v>0.9908646237951373</v>
+        <v>1.008679762448607</v>
       </c>
       <c r="C38">
         <v>1.013844996237773</v>
       </c>
       <c r="D38">
-        <v>1.008687460749424</v>
+        <v>0.9908646237951373</v>
       </c>
       <c r="E38">
+        <v>1.0178222511694</v>
+      </c>
+      <c r="F38">
         <v>0.9442635616135975</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.980981654019787</v>
       </c>
-      <c r="G38">
-        <v>1.017857142857143</v>
-      </c>
       <c r="H38">
-        <v>0.9934525201181573</v>
+        <v>0.9934457467048323</v>
       </c>
       <c r="I38">
         <v>1.019055741144727</v>
@@ -2238,25 +2232,25 @@
         <v>44257</v>
       </c>
       <c r="B39">
-        <v>0.9925190620054667</v>
+        <v>0.999299527942744</v>
       </c>
       <c r="C39">
         <v>1.00887885628292</v>
       </c>
       <c r="D39">
-        <v>0.999302211987998</v>
+        <v>0.9925190620054667</v>
       </c>
       <c r="E39">
+        <v>1.010894665166677</v>
+      </c>
+      <c r="F39">
         <v>0.9527068042602505</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.9807415233887236</v>
       </c>
-      <c r="G39">
-        <v>1.010912698412698</v>
-      </c>
       <c r="H39">
-        <v>0.9913502371503817</v>
+        <v>0.9913469953544276</v>
       </c>
       <c r="I39">
         <v>1.010400322909452</v>
@@ -2270,25 +2264,25 @@
         <v>44258</v>
       </c>
       <c r="B40">
-        <v>0.9920874694288591</v>
+        <v>1.009654332267398</v>
       </c>
       <c r="C40">
         <v>1.018459994983697</v>
       </c>
       <c r="D40">
-        <v>1.009664363966227</v>
+        <v>0.9920874694288591</v>
       </c>
       <c r="E40">
+        <v>1.048611522292616</v>
+      </c>
+      <c r="F40">
         <v>0.9512168202637823</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.9912112189030833</v>
       </c>
-      <c r="G40">
-        <v>1.048611111111111</v>
-      </c>
       <c r="H40">
-        <v>1.001775238468268</v>
+        <v>1.001773293805728</v>
       </c>
       <c r="I40">
         <v>1.024758485403896</v>
@@ -2302,25 +2296,25 @@
         <v>44259</v>
       </c>
       <c r="B41">
-        <v>0.9651848654869803</v>
+        <v>0.960590832952642</v>
       </c>
       <c r="C41">
         <v>0.9931778279408076</v>
       </c>
       <c r="D41">
-        <v>0.9606098667224896</v>
+        <v>0.9651848654869803</v>
       </c>
       <c r="E41">
+        <v>1.043637870803481</v>
+      </c>
+      <c r="F41">
         <v>0.9321229512720048</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.9335798674478917</v>
       </c>
-      <c r="G41">
-        <v>1.043650793650793</v>
-      </c>
       <c r="H41">
-        <v>0.9705386624886186</v>
+        <v>0.9705329173075523</v>
       </c>
       <c r="I41">
         <v>1.005478152568434</v>
@@ -2334,25 +2328,25 @@
         <v>44260</v>
       </c>
       <c r="B42">
-        <v>0.9661919148323981</v>
+        <v>0.9673823663773412</v>
       </c>
       <c r="C42">
         <v>0.9967895660897919</v>
       </c>
       <c r="D42">
-        <v>0.9673784104389086</v>
+        <v>0.9661919148323981</v>
       </c>
       <c r="E42">
+        <v>1.018828823494582</v>
+      </c>
+      <c r="F42">
         <v>0.9126979747254566</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.9333397368168285</v>
       </c>
-      <c r="G42">
-        <v>1.018849206349206</v>
-      </c>
       <c r="H42">
-        <v>0.9659655376514539</v>
+        <v>0.9659632714109466</v>
       </c>
       <c r="I42">
         <v>1.005715308829281</v>
@@ -2366,25 +2360,25 @@
         <v>44263</v>
       </c>
       <c r="B43">
-        <v>0.9448280822903178</v>
+        <v>0.9192325262677021</v>
       </c>
       <c r="C43">
         <v>0.965237020316027</v>
       </c>
       <c r="D43">
-        <v>0.9192310376107737</v>
+        <v>0.9448280822903178</v>
       </c>
       <c r="E43">
+        <v>1.011901237491859</v>
+      </c>
+      <c r="F43">
         <v>0.8486838474697864</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0.8843050619537028</v>
       </c>
-      <c r="G43">
-        <v>1.011904761904762</v>
-      </c>
       <c r="H43">
-        <v>0.9293314277268601</v>
+        <v>0.9293311967963103</v>
       </c>
       <c r="I43">
         <v>0.9826137761087841</v>
@@ -2398,25 +2392,25 @@
         <v>44264</v>
       </c>
       <c r="B44">
-        <v>0.9348295209322399</v>
+        <v>0.8871021775544388</v>
       </c>
       <c r="C44">
         <v>0.9509405568096313</v>
       </c>
       <c r="D44">
-        <v>0.8870978996580839</v>
+        <v>0.9348295209322399</v>
       </c>
       <c r="E44">
+        <v>0.9979868553496358</v>
+      </c>
+      <c r="F44">
         <v>0.8038187737983554</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.8690807799442898</v>
       </c>
-      <c r="G44">
-        <v>0.9980158730158729</v>
-      </c>
       <c r="H44">
-        <v>0.9076638816532872</v>
+        <v>0.9076603845826225</v>
       </c>
       <c r="I44">
         <v>0.9593049279814547</v>
@@ -2430,25 +2424,25 @@
         <v>44265</v>
       </c>
       <c r="B45">
-        <v>0.9394331750827218</v>
+        <v>0.9016293589157911</v>
       </c>
       <c r="C45">
         <v>0.9599699021820918</v>
       </c>
       <c r="D45">
-        <v>0.9016467797083245</v>
+        <v>0.9394331750827218</v>
       </c>
       <c r="E45">
+        <v>0.9860856178577772</v>
+      </c>
+      <c r="F45">
         <v>0.7993488218089508</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.890500432235136</v>
       </c>
-      <c r="G45">
-        <v>0.986111111111111</v>
-      </c>
       <c r="H45">
-        <v>0.9136055310588028</v>
+        <v>0.913598222912296</v>
       </c>
       <c r="I45">
         <v>0.952121135020441</v>
@@ -2462,25 +2456,25 @@
         <v>44266</v>
       </c>
       <c r="B46">
-        <v>0.9529564091497625</v>
+        <v>0.9251104004872849</v>
       </c>
       <c r="C46">
         <v>0.9728618008527715</v>
       </c>
       <c r="D46">
-        <v>0.9251273463121904</v>
+        <v>0.9529564091497625</v>
       </c>
       <c r="E46">
+        <v>1.012907809817041</v>
+      </c>
+      <c r="F46">
         <v>0.8163456762871806</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>0.9168187493996736</v>
       </c>
-      <c r="G46">
-        <v>1.012896825396825</v>
-      </c>
       <c r="H46">
-        <v>0.9334552088828583</v>
+        <v>0.9334534673809095</v>
       </c>
       <c r="I46">
         <v>0.9759262836671583</v>
@@ -2494,25 +2488,25 @@
         <v>44267</v>
       </c>
       <c r="B47">
-        <v>0.9540353905912818</v>
+        <v>0.9285823054667275</v>
       </c>
       <c r="C47">
         <v>0.9780285929270127</v>
       </c>
       <c r="D47">
-        <v>0.9285813969716</v>
+        <v>0.9540353905912818</v>
       </c>
       <c r="E47">
+        <v>1.010894665166677</v>
+      </c>
+      <c r="F47">
         <v>0.8079576182329893</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>0.9207568917491116</v>
       </c>
-      <c r="G47">
-        <v>1.010912698412698</v>
-      </c>
       <c r="H47">
-        <v>0.9341717277108481</v>
+        <v>0.9341692044229704</v>
       </c>
       <c r="I47">
         <v>0.9772691220977807</v>
@@ -2526,25 +2520,25 @@
         <v>44270</v>
       </c>
       <c r="B48">
-        <v>0.9337505394907207</v>
+        <v>0.8905740825338815</v>
       </c>
       <c r="C48">
         <v>0.9645849009280161</v>
       </c>
       <c r="D48">
-        <v>0.8905868397180936</v>
+        <v>0.9337505394907207</v>
       </c>
       <c r="E48">
+        <v>1.007934158327906</v>
+      </c>
+      <c r="F48">
         <v>0.798024391589868</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0.8923734511574297</v>
       </c>
-      <c r="G48">
-        <v>1.007936507936508</v>
-      </c>
       <c r="H48">
-        <v>0.9143053635835361</v>
+        <v>0.9143024597054034</v>
       </c>
       <c r="I48">
         <v>0.9696502808966706</v>
@@ -2558,25 +2552,25 @@
         <v>44271</v>
       </c>
       <c r="B49">
-        <v>0.9460509279240396</v>
+        <v>0.9000456829602558</v>
       </c>
       <c r="C49">
         <v>0.9754201153749685</v>
       </c>
       <c r="D49">
-        <v>0.9000418672807201</v>
+        <v>0.9460509279240396</v>
       </c>
       <c r="E49">
+        <v>1.024809047308899</v>
+      </c>
+      <c r="F49">
         <v>0.7943822084873903</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.894870809720488</v>
       </c>
-      <c r="G49">
-        <v>1.024801587301587</v>
-      </c>
       <c r="H49">
-        <v>0.9226397671736171</v>
+        <v>0.922641649310621</v>
       </c>
       <c r="I49">
         <v>0.9730065916875945</v>
@@ -2590,25 +2584,25 @@
         <v>44272</v>
       </c>
       <c r="B50">
-        <v>0.9653287296791828</v>
+        <v>0.9107964062737932</v>
       </c>
       <c r="C50">
         <v>0.9900677200902934</v>
       </c>
       <c r="D50">
-        <v>0.9107878026655502</v>
+        <v>0.9653287296791828</v>
       </c>
       <c r="E50">
+        <v>0.9989934276748179</v>
+      </c>
+      <c r="F50">
         <v>0.8062468958666741</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.9174430890404381</v>
       </c>
-      <c r="G50">
-        <v>0.9990079365079364</v>
-      </c>
       <c r="H50">
-        <v>0.9321381526947479</v>
+        <v>0.9321376970914288</v>
       </c>
       <c r="I50">
         <v>0.9777371523344186</v>
@@ -2622,25 +2616,25 @@
         <v>44273</v>
       </c>
       <c r="B51">
-        <v>0.9708675010789813</v>
+        <v>0.9257804172377037</v>
       </c>
       <c r="C51">
         <v>0.9987459242538249</v>
       </c>
       <c r="D51">
-        <v>0.9257902449235922</v>
+        <v>0.9708675010789813</v>
       </c>
       <c r="E51">
+        <v>0.9910592693469121</v>
+      </c>
+      <c r="F51">
         <v>0.8173389989514928</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.9207568917491116</v>
       </c>
-      <c r="G51">
-        <v>0.9910714285714285</v>
-      </c>
       <c r="H51">
-        <v>0.9385185357293935</v>
+        <v>0.9385147463085382</v>
       </c>
       <c r="I51">
         <v>0.9853544229642648</v>
@@ -2654,25 +2648,25 @@
         <v>44274</v>
       </c>
       <c r="B52">
-        <v>0.9544669831678895</v>
+        <v>0.8998324958123953</v>
       </c>
       <c r="C52">
         <v>0.9784800601956357</v>
       </c>
       <c r="D52">
-        <v>0.8998325308771195</v>
+        <v>0.9544669831678895</v>
       </c>
       <c r="E52">
+        <v>0.96228314287406</v>
+      </c>
+      <c r="F52">
         <v>0.8188289829479609</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0.8901162232254347</v>
       </c>
-      <c r="G52">
-        <v>0.9623015873015872</v>
-      </c>
       <c r="H52">
-        <v>0.9183189308595946</v>
+        <v>0.9183161571825207</v>
       </c>
       <c r="I52">
         <v>0.9747907606433689</v>
@@ -2686,25 +2680,25 @@
         <v>44277</v>
       </c>
       <c r="B53">
-        <v>0.9650410012947775</v>
+        <v>0.9087863560225369</v>
       </c>
       <c r="C53">
         <v>0.9925257085527965</v>
       </c>
       <c r="D53">
-        <v>0.9087991068313446</v>
+        <v>0.9650410012947775</v>
       </c>
       <c r="E53">
+        <v>0.968263366688377</v>
+      </c>
+      <c r="F53">
         <v>0.8253407648584515</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>0.9013543367591971</v>
       </c>
-      <c r="G53">
-        <v>0.9682539682539681</v>
-      </c>
       <c r="H53">
-        <v>0.9278892383888864</v>
+        <v>0.9278880979922862</v>
       </c>
       <c r="I53">
         <v>0.9903535512972134</v>
@@ -2718,25 +2712,25 @@
         <v>44278</v>
       </c>
       <c r="B54">
-        <v>0.956624946050928</v>
+        <v>0.8986447388457438</v>
       </c>
       <c r="C54">
         <v>0.9775771256583898</v>
       </c>
       <c r="D54">
-        <v>0.8986462912567161</v>
+        <v>0.956624946050928</v>
       </c>
       <c r="E54">
+        <v>0.9692107288767837</v>
+      </c>
+      <c r="F54">
         <v>0.8199326747971966</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>0.8681682835462493</v>
       </c>
-      <c r="G54">
-        <v>0.9692460317460316</v>
-      </c>
       <c r="H54">
-        <v>0.916292864823709</v>
+        <v>0.9162872589111273</v>
       </c>
       <c r="I54">
         <v>0.9767649687220733</v>
@@ -2750,25 +2744,25 @@
         <v>44279</v>
       </c>
       <c r="B55">
-        <v>0.9555459646094087</v>
+        <v>0.8873762753159737</v>
       </c>
       <c r="C55">
         <v>0.9655881615249561</v>
       </c>
       <c r="D55">
-        <v>0.8873770148628847</v>
+        <v>0.9555459646094087</v>
       </c>
       <c r="E55">
+        <v>0.9543489845461542</v>
+      </c>
+      <c r="F55">
         <v>0.8021632360245019</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>0.8384881375468255</v>
       </c>
-      <c r="G55">
-        <v>0.9543650793650792</v>
-      </c>
       <c r="H55">
-        <v>0.902675288063663</v>
+        <v>0.902672725931442</v>
       </c>
       <c r="I55">
         <v>0.9647296811269164</v>
@@ -2782,25 +2776,25 @@
         <v>44280</v>
       </c>
       <c r="B56">
-        <v>0.9510861746511293</v>
+        <v>0.894594183036394</v>
       </c>
       <c r="C56">
         <v>0.9624780536744419</v>
       </c>
       <c r="D56">
-        <v>0.8945991207871048</v>
+        <v>0.9510861746511293</v>
       </c>
       <c r="E56">
+        <v>0.9533424122209723</v>
+      </c>
+      <c r="F56">
         <v>0.8056950499420561</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>0.8523676880222841</v>
       </c>
-      <c r="G56">
-        <v>0.9533730158730157</v>
-      </c>
       <c r="H56">
-        <v>0.9052241302144165</v>
+        <v>0.9052185521164677</v>
       </c>
       <c r="I56">
         <v>0.9670651205963146</v>
@@ -2814,25 +2808,25 @@
         <v>44281</v>
       </c>
       <c r="B57">
-        <v>0.972809667673716</v>
+        <v>0.9246231155778895</v>
       </c>
       <c r="C57">
         <v>0.9837973413594181</v>
       </c>
       <c r="D57">
-        <v>0.9246388947037889</v>
+        <v>0.972809667673716</v>
       </c>
       <c r="E57">
+        <v>0.968263366688377</v>
+      </c>
+      <c r="F57">
         <v>0.8232437503449037</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>0.8949188358467006</v>
       </c>
-      <c r="G57">
-        <v>0.9682539682539681</v>
-      </c>
       <c r="H57">
-        <v>0.9300217968462496</v>
+        <v>0.930020050786231</v>
       </c>
       <c r="I57">
         <v>0.9818881721848689</v>
@@ -2846,25 +2840,25 @@
         <v>44284</v>
       </c>
       <c r="B58">
-        <v>0.9838872104733131</v>
+        <v>0.9207857469164001</v>
       </c>
       <c r="C58">
         <v>0.980536744419363</v>
       </c>
       <c r="D58">
-        <v>0.9208010606377782</v>
+        <v>0.9838872104733131</v>
       </c>
       <c r="E58">
+        <v>0.9642962875244242</v>
+      </c>
+      <c r="F58">
         <v>0.8353843606864964</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>0.8840169051964269</v>
       </c>
-      <c r="G58">
-        <v>0.9642857142857142</v>
-      </c>
       <c r="H58">
-        <v>0.9305712129104183</v>
+        <v>0.9305697361519493</v>
       </c>
       <c r="I58">
         <v>0.9823829021329928</v>
@@ -2878,25 +2872,25 @@
         <v>44285</v>
       </c>
       <c r="B59">
-        <v>0.984894259818731</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C59">
         <v>0.982141961374467</v>
       </c>
       <c r="D59">
-        <v>0.9333263554532133</v>
+        <v>0.984894259818731</v>
       </c>
       <c r="E59">
+        <v>0.9642962875244242</v>
+      </c>
+      <c r="F59">
         <v>0.8552508139727388</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>0.8964076457592931</v>
       </c>
-      <c r="G59">
-        <v>0.9642857142857142</v>
-      </c>
       <c r="H59">
-        <v>0.9383570433632208</v>
+        <v>0.9383600249250513</v>
       </c>
       <c r="I59">
         <v>0.9863752942857905</v>
@@ -2910,25 +2904,25 @@
         <v>44286</v>
       </c>
       <c r="B60">
-        <v>0.9939577039274923</v>
+        <v>0.9291609562966346</v>
       </c>
       <c r="C60">
         <v>0.9779784298971658</v>
       </c>
       <c r="D60">
-        <v>0.9291745167818016</v>
+        <v>0.9939577039274923</v>
       </c>
       <c r="E60">
+        <v>0.957309491384925</v>
+      </c>
+      <c r="F60">
         <v>0.8250096573036808</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>0.883872826817789</v>
       </c>
-      <c r="G60">
-        <v>0.9573412698412698</v>
-      </c>
       <c r="H60">
-        <v>0.9312567717208446</v>
+        <v>0.9312492928553595</v>
       </c>
       <c r="I60">
         <v>0.9822462624330348</v>
@@ -2942,25 +2936,25 @@
         <v>44287</v>
       </c>
       <c r="B61">
-        <v>1.003812401093368</v>
+        <v>0.9482564336835693</v>
       </c>
       <c r="C61">
         <v>0.9935791321795836</v>
       </c>
       <c r="D61">
-        <v>0.9482590189100552</v>
+        <v>1.003812401093368</v>
       </c>
       <c r="E61">
+        <v>0.9632897151992421</v>
+      </c>
+      <c r="F61">
         <v>0.8311903316594007</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>0.9008260493708578</v>
       </c>
-      <c r="G61">
-        <v>0.9632936507936507</v>
-      </c>
       <c r="H61">
-        <v>0.9437476586012086</v>
+        <v>0.94374655121675</v>
       </c>
       <c r="I61">
         <v>0.9912911823417532</v>
@@ -2974,25 +2968,25 @@
         <v>44288</v>
       </c>
       <c r="B62">
-        <v>1.011437203280103</v>
+        <v>0.960590832952642</v>
       </c>
       <c r="C62">
         <v>1.006571356909957</v>
       </c>
       <c r="D62">
-        <v>0.9606098667224896</v>
+        <v>1.011437203280103</v>
       </c>
       <c r="E62">
+        <v>0.9593226360352892</v>
+      </c>
+      <c r="F62">
         <v>0.8347221455769549</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>0.913937181826914</v>
       </c>
-      <c r="G62">
-        <v>0.9593253968253966</v>
-      </c>
       <c r="H62">
-        <v>0.951592826171402</v>
+        <v>0.9515886052989164</v>
       </c>
       <c r="I62">
         <v>0.9936391863812625</v>
@@ -3006,25 +3000,25 @@
         <v>44292</v>
       </c>
       <c r="B63">
-        <v>1.004675586246583</v>
+        <v>0.9536165676869195</v>
       </c>
       <c r="C63">
         <v>1.000752445447705</v>
       </c>
       <c r="D63">
-        <v>0.9536319866024701</v>
+        <v>1.004675586246583</v>
       </c>
       <c r="E63">
+        <v>0.957309491384925</v>
+      </c>
+      <c r="F63">
         <v>0.8401302356382098</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>0.9183075593122659</v>
       </c>
-      <c r="G63">
-        <v>0.9573412698412698</v>
-      </c>
       <c r="H63">
-        <v>0.9491412411057282</v>
+        <v>0.9491333905541663</v>
       </c>
       <c r="I63">
         <v>0.9962290583954103</v>
@@ -3038,25 +3032,25 @@
         <v>44293</v>
       </c>
       <c r="B64">
-        <v>1.001007049345418</v>
+        <v>0.9454545454545454</v>
       </c>
       <c r="C64">
         <v>0.9966390770002508</v>
       </c>
       <c r="D64">
-        <v>0.9454678668620473</v>
+        <v>1.001007049345418</v>
       </c>
       <c r="E64">
+        <v>0.9414411747291136</v>
+      </c>
+      <c r="F64">
         <v>0.8311903316594007</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>0.911391797137643</v>
       </c>
-      <c r="G64">
-        <v>0.9414682539682538</v>
-      </c>
       <c r="H64">
-        <v>0.9413984022063252</v>
+        <v>0.9413916760389538</v>
       </c>
       <c r="I64">
         <v>0.9970112028848254</v>
@@ -3070,25 +3064,25 @@
         <v>44294</v>
       </c>
       <c r="B65">
-        <v>1.004459789958279</v>
+        <v>0.9522460788792447</v>
       </c>
       <c r="C65">
         <v>0.9962377727614747</v>
       </c>
       <c r="D65">
-        <v>0.9522364105784661</v>
+        <v>1.004459789958279</v>
       </c>
       <c r="E65">
+        <v>0.9464148262182486</v>
+      </c>
+      <c r="F65">
         <v>0.8336184537277191</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>0.9065411583901642</v>
       </c>
-      <c r="G65">
-        <v>0.9464285714285714</v>
-      </c>
       <c r="H65">
-        <v>0.9437631335535386</v>
+        <v>0.9437630054321458</v>
       </c>
       <c r="I65">
         <v>0.9983728881706143</v>
@@ -3102,25 +3096,25 @@
         <v>44295</v>
       </c>
       <c r="B66">
-        <v>0.9979139692130627</v>
+        <v>0.9376275315973808</v>
       </c>
       <c r="C66">
         <v>0.9893654376724353</v>
       </c>
       <c r="D66">
-        <v>0.9376177517270252</v>
+        <v>0.9979139692130627</v>
       </c>
       <c r="E66">
+        <v>0.9335070164012078</v>
+      </c>
+      <c r="F66">
         <v>0.8316318083990949</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>0.8905964844875613</v>
       </c>
-      <c r="G66">
-        <v>0.9335317460317458</v>
-      </c>
       <c r="H66">
-        <v>0.9338751656766433</v>
+        <v>0.9338734122061336</v>
       </c>
       <c r="I66">
         <v>0.9949945893819959</v>
@@ -3134,25 +3128,25 @@
         <v>44298</v>
       </c>
       <c r="B67">
-        <v>0.9800028772838441</v>
+        <v>0.916400182731841</v>
       </c>
       <c r="C67">
         <v>0.9704038123902684</v>
       </c>
       <c r="D67">
-        <v>0.9164049961621658</v>
+        <v>0.9800028772838441</v>
       </c>
       <c r="E67">
+        <v>0.9275860027236662</v>
+      </c>
+      <c r="F67">
         <v>0.8023839743943491</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>0.8604841033522237</v>
       </c>
-      <c r="G67">
-        <v>0.9275793650793651</v>
-      </c>
       <c r="H67">
-        <v>0.9134092629716329</v>
+        <v>0.9134092959322131</v>
       </c>
       <c r="I67">
         <v>0.9779036328883906</v>
@@ -3166,25 +3160,25 @@
         <v>44299</v>
       </c>
       <c r="B68">
-        <v>0.9721622788088043</v>
+        <v>0.9240749200548195</v>
       </c>
       <c r="C68">
         <v>0.9554552294958616</v>
       </c>
       <c r="D68">
-        <v>0.9240806642941873</v>
+        <v>0.9721622788088043</v>
       </c>
       <c r="E68">
+        <v>0.9226123512345313</v>
+      </c>
+      <c r="F68">
         <v>0.8009491749903427</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>0.8655748727307656</v>
       </c>
-      <c r="G68">
-        <v>0.9226190476190476</v>
-      </c>
       <c r="H68">
-        <v>0.9109383373460009</v>
+        <v>0.91093618404045</v>
       </c>
       <c r="I68">
         <v>0.9752902023052845</v>
@@ -3198,25 +3192,25 @@
         <v>44300</v>
       </c>
       <c r="B69">
-        <v>0.9824485685512875</v>
+        <v>0.9446627074767777</v>
       </c>
       <c r="C69">
         <v>0.9788813644344119</v>
       </c>
       <c r="D69">
-        <v>0.9446654106482449</v>
+        <v>0.9824485685512875</v>
       </c>
       <c r="E69">
+        <v>0.9236189235597134</v>
+      </c>
+      <c r="F69">
         <v>0.8137520004414767</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>0.9065411583901642</v>
       </c>
-      <c r="G69">
-        <v>0.923611111111111</v>
-      </c>
       <c r="H69">
-        <v>0.928840640996481</v>
+        <v>0.9288412722294781</v>
       </c>
       <c r="I69">
         <v>0.9858805643376666</v>
@@ -3230,25 +3224,25 @@
         <v>44301</v>
       </c>
       <c r="B70">
-        <v>0.9774133218241979</v>
+        <v>0.9400639561443581</v>
       </c>
       <c r="C70">
         <v>0.9742162026586405</v>
       </c>
       <c r="D70">
-        <v>0.9400600097690321</v>
+        <v>0.9774133218241979</v>
       </c>
       <c r="E70">
+        <v>0.9107111137426728</v>
+      </c>
+      <c r="F70">
         <v>0.8148556922907124</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>0.9049082700989339</v>
       </c>
-      <c r="G70">
-        <v>0.9107142857142857</v>
-      </c>
       <c r="H70">
-        <v>0.9241988339330319</v>
+        <v>0.9241991474123552</v>
       </c>
       <c r="I70">
         <v>0.9857627714928752</v>
@@ -3262,25 +3256,25 @@
         <v>44302</v>
       </c>
       <c r="B71">
-        <v>0.9823047043590849</v>
+        <v>0.9376579869042181</v>
       </c>
       <c r="C71">
         <v>0.9871081013293203</v>
       </c>
       <c r="D71">
-        <v>0.9376526411276254</v>
+        <v>0.9823047043590849</v>
       </c>
       <c r="E71">
+        <v>0.9205992065841672</v>
+      </c>
+      <c r="F71">
         <v>0.8159593841399481</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>0.8990010565747767</v>
       </c>
-      <c r="G71">
-        <v>0.9206349206349207</v>
-      </c>
       <c r="H71">
-        <v>0.9273969884991868</v>
+        <v>0.9273927005468924</v>
       </c>
       <c r="I71">
         <v>0.9956777878817863</v>
@@ -3294,25 +3288,25 @@
         <v>44305</v>
       </c>
       <c r="B72">
-        <v>0.9971946482520501</v>
+        <v>0.9762753159738085</v>
       </c>
       <c r="C72">
         <v>1.011286681715576</v>
       </c>
       <c r="D72">
-        <v>0.9762752075919335</v>
+        <v>0.9971946482520501</v>
       </c>
       <c r="E72">
+        <v>0.9315530818876191</v>
+      </c>
+      <c r="F72">
         <v>0.8358258374261905</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>0.9587455575833254</v>
       </c>
-      <c r="G72">
-        <v>0.931547619047619</v>
-      </c>
       <c r="H72">
-        <v>0.9553048255347034</v>
+        <v>0.9553056666370783</v>
       </c>
       <c r="I72">
         <v>1.009132871899496</v>
@@ -3326,25 +3320,25 @@
         <v>44306</v>
       </c>
       <c r="B73">
-        <v>0.9986332901740756</v>
+        <v>0.9756052992233896</v>
       </c>
       <c r="C73">
         <v>1.00551793328317</v>
       </c>
       <c r="D73">
-        <v>0.9756123089805316</v>
+        <v>0.9986332901740756</v>
       </c>
       <c r="E73">
+        <v>0.9265794303984841</v>
+      </c>
+      <c r="F73">
         <v>0.8340599304674136</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>0.9505330900009606</v>
       </c>
-      <c r="G73">
-        <v>0.9265873015873016</v>
-      </c>
       <c r="H73">
-        <v>0.9523538581317483</v>
+        <v>0.9523512755019973</v>
       </c>
       <c r="I73">
         <v>1.009648019274051</v>
@@ -3358,25 +3352,25 @@
         <v>44307</v>
       </c>
       <c r="B74">
-        <v>0.9987771543662782</v>
+        <v>0.9826404751027866</v>
       </c>
       <c r="C74">
         <v>1.001906195134186</v>
       </c>
       <c r="D74">
-        <v>0.9826599679017514</v>
+        <v>0.9987771543662782</v>
       </c>
       <c r="E74">
+        <v>0.9265794303984841</v>
+      </c>
+      <c r="F74">
         <v>0.8275481485569229</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>0.9491403323407934</v>
       </c>
-      <c r="G74">
-        <v>0.9265873015873016</v>
-      </c>
       <c r="H74">
-        <v>0.9520647210964864</v>
+        <v>0.9520596418583709</v>
       </c>
       <c r="I74">
         <v>1.008347586267553</v>
@@ -3390,25 +3384,25 @@
         <v>44308</v>
       </c>
       <c r="B75">
-        <v>0.9953244137534166</v>
+        <v>0.990162935891579</v>
       </c>
       <c r="C75">
         <v>1.001755706044645</v>
       </c>
       <c r="D75">
-        <v>0.9901611890307723</v>
+        <v>0.9953244137534166</v>
       </c>
       <c r="E75">
+        <v>0.9275860027236662</v>
+      </c>
+      <c r="F75">
         <v>0.8297555322553943</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>0.9515416386514265</v>
       </c>
-      <c r="G75">
-        <v>0.9275793650793651</v>
-      </c>
       <c r="H75">
-        <v>0.9536919568614626</v>
+        <v>0.953693301880269</v>
       </c>
       <c r="I75">
         <v>1.012306996423809</v>
@@ -3422,25 +3416,25 @@
         <v>44309</v>
       </c>
       <c r="B76">
-        <v>1.004459789958279</v>
+        <v>1.009928430028933</v>
       </c>
       <c r="C76">
         <v>1.002758966641585</v>
       </c>
       <c r="D76">
-        <v>1.009943479171028</v>
+        <v>1.004459789958279</v>
       </c>
       <c r="E76">
+        <v>0.929539937237255</v>
+      </c>
+      <c r="F76">
         <v>0.8275481485569229</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>0.9658053981365864</v>
       </c>
-      <c r="G76">
-        <v>0.929563492063492</v>
-      </c>
       <c r="H76">
-        <v>0.9617320546356495</v>
+        <v>0.9617255115832949</v>
       </c>
       <c r="I76">
         <v>1.015022514139068</v>
@@ -3454,25 +3448,25 @@
         <v>44312</v>
       </c>
       <c r="B77">
-        <v>0.9968349877715436</v>
+        <v>1.00164458656921</v>
       </c>
       <c r="C77">
         <v>0.9956358164033107</v>
       </c>
       <c r="D77">
-        <v>1.001639801828204</v>
+        <v>0.9968349877715436</v>
       </c>
       <c r="E77">
+        <v>0.9107111137426728</v>
+      </c>
+      <c r="F77">
         <v>0.8280999944815407</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>0.9528863701853809</v>
       </c>
-      <c r="G77">
-        <v>0.9107142857142857</v>
-      </c>
       <c r="H77">
-        <v>0.9527954279376273</v>
+        <v>0.9527959090900864</v>
       </c>
       <c r="I77">
         <v>1.011864095327393</v>
@@ -3486,25 +3480,25 @@
         <v>44313</v>
       </c>
       <c r="B78">
-        <v>1.005107178823191</v>
+        <v>1.007187452413583</v>
       </c>
       <c r="C78">
         <v>0.9970403812390268</v>
       </c>
       <c r="D78">
-        <v>1.00718721652362</v>
+        <v>1.005107178823191</v>
       </c>
       <c r="E78">
+        <v>0.9205992065841672</v>
+      </c>
+      <c r="F78">
         <v>0.812648308592241</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>0.9460186341369706</v>
       </c>
-      <c r="G78">
-        <v>0.9206349206349207</v>
-      </c>
       <c r="H78">
-        <v>0.953910215759836</v>
+        <v>0.9539049058302157</v>
       </c>
       <c r="I78">
         <v>1.012434212696184</v>
@@ -3518,25 +3512,25 @@
         <v>44314</v>
       </c>
       <c r="B79">
-        <v>1.024384980578334</v>
+        <v>1.028871630881681</v>
       </c>
       <c r="C79">
         <v>1.006069726611487</v>
       </c>
       <c r="D79">
-        <v>1.028888423696881</v>
+        <v>1.024384980578334</v>
       </c>
       <c r="E79">
+        <v>0.9236189235597134</v>
+      </c>
+      <c r="F79">
         <v>0.8234644887147508</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>0.9720487945442321</v>
       </c>
-      <c r="G79">
-        <v>0.923611111111111</v>
-      </c>
       <c r="H79">
-        <v>0.9694337990022801</v>
+        <v>0.9694316123065304</v>
       </c>
       <c r="I79">
         <v>1.019259915409032</v>
@@ -3550,25 +3544,25 @@
         <v>44315</v>
       </c>
       <c r="B80">
-        <v>1.040929362681629</v>
+        <v>1.029176183950053</v>
       </c>
       <c r="C80">
         <v>1.007424128417356</v>
       </c>
       <c r="D80">
-        <v>1.029167538901682</v>
+        <v>1.040929362681629</v>
       </c>
       <c r="E80">
+        <v>0.9364675232399786</v>
+      </c>
+      <c r="F80">
         <v>0.8248992881187571</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>0.9715685332821056</v>
       </c>
-      <c r="G80">
-        <v>0.9365079365079364</v>
-      </c>
       <c r="H80">
-        <v>0.9750793632655853</v>
+        <v>0.9750750302850661</v>
       </c>
       <c r="I80">
         <v>1.019603870515823</v>
@@ -3582,25 +3576,25 @@
         <v>44316</v>
       </c>
       <c r="B81">
-        <v>1.028844770536613</v>
+        <v>1.04266788487894</v>
       </c>
       <c r="C81">
         <v>1.001555053925257</v>
       </c>
       <c r="D81">
-        <v>1.04266973693392</v>
+        <v>1.028844770536613</v>
       </c>
       <c r="E81">
+        <v>0.9236189235597134</v>
+      </c>
+      <c r="F81">
         <v>0.7971966227029413</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>0.9920756891749113</v>
       </c>
-      <c r="G81">
-        <v>0.923611111111111</v>
-      </c>
       <c r="H81">
-        <v>0.9714686730312396</v>
+        <v>0.9714694744875342</v>
       </c>
       <c r="I81">
         <v>1.018626975189686</v>
@@ -3614,25 +3608,25 @@
         <v>44322</v>
       </c>
       <c r="B82">
-        <v>1.025679758308157</v>
+        <v>1.016872239987818</v>
       </c>
       <c r="C82">
         <v>0.9905693503887634</v>
       </c>
       <c r="D82">
-        <v>1.016886469890447</v>
+        <v>1.025679758308157</v>
       </c>
       <c r="E82">
+        <v>0.9196518443957604</v>
+      </c>
+      <c r="F82">
         <v>0.8033772970586612</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>0.9846316396119489</v>
       </c>
-      <c r="G82">
-        <v>0.9196428571428571</v>
-      </c>
       <c r="H82">
-        <v>0.9632464172700554</v>
+        <v>0.9632449193774651</v>
       </c>
       <c r="I82">
         <v>1.01919866312974</v>
@@ -3646,25 +3640,25 @@
         <v>44323</v>
       </c>
       <c r="B83">
-        <v>1.000431592576608</v>
+        <v>0.9817572712045073</v>
       </c>
       <c r="C83">
         <v>0.9713569099573613</v>
       </c>
       <c r="D83">
-        <v>0.9817528434861489</v>
+        <v>1.000431592576608</v>
       </c>
       <c r="E83">
+        <v>0.9146781929066256</v>
+      </c>
+      <c r="F83">
         <v>0.7882567187241322</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>0.9554317548746519</v>
       </c>
-      <c r="G83">
-        <v>0.9146825396825397</v>
-      </c>
       <c r="H83">
-        <v>0.9408960756983541</v>
+        <v>0.9408963092256386</v>
       </c>
       <c r="I83">
         <v>1.012145227583629</v>
@@ -3678,25 +3672,25 @@
         <v>44326</v>
       </c>
       <c r="B84">
-        <v>1.000071932096101</v>
+        <v>0.9855641845591594</v>
       </c>
       <c r="C84">
         <v>0.9787810383747179</v>
       </c>
       <c r="D84">
-        <v>0.9855557881515596</v>
+        <v>1.000071932096101</v>
       </c>
       <c r="E84">
+        <v>0.9156847652318076</v>
+      </c>
+      <c r="F84">
         <v>0.7814138292588708</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>0.9644126404764194</v>
       </c>
-      <c r="G84">
-        <v>0.9156746031746033</v>
-      </c>
       <c r="H84">
-        <v>0.9431678607422238</v>
+        <v>0.9431710643323246</v>
       </c>
       <c r="I84">
         <v>1.017100379921189</v>
@@ -3710,25 +3704,25 @@
         <v>44327</v>
       </c>
       <c r="B85">
-        <v>1.000143864192202</v>
+        <v>0.9854119080249732</v>
       </c>
       <c r="C85">
         <v>0.9783797341359417</v>
       </c>
       <c r="D85">
-        <v>0.9854162305491592</v>
+        <v>1.000143864192202</v>
       </c>
       <c r="E85">
+        <v>0.9186452720705786</v>
+      </c>
+      <c r="F85">
         <v>0.8002869598808012</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>0.9444817980981655</v>
       </c>
-      <c r="G85">
-        <v>0.9186507936507936</v>
-      </c>
       <c r="H85">
-        <v>0.9433819118131277</v>
+        <v>0.9433802190712582</v>
       </c>
       <c r="I85">
         <v>1.013967090249737</v>
@@ -3742,25 +3736,25 @@
         <v>44328</v>
       </c>
       <c r="B86">
-        <v>1.000503524672709</v>
+        <v>0.9986295111923252</v>
       </c>
       <c r="C86">
         <v>0.9870077752696262</v>
       </c>
       <c r="D86">
-        <v>0.9986393133765962</v>
+        <v>1.000503524672709</v>
       </c>
       <c r="E86">
+        <v>0.9166321274202143</v>
+      </c>
+      <c r="F86">
         <v>0.7992936372164891</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>0.9481798098165403</v>
       </c>
-      <c r="G86">
-        <v>0.9166666666666666</v>
-      </c>
       <c r="H86">
-        <v>0.9475007509552593</v>
+        <v>0.9474936096314374</v>
       </c>
       <c r="I86">
         <v>1.022763859898761</v>
@@ -3774,25 +3768,25 @@
         <v>44329</v>
       </c>
       <c r="B87">
-        <v>0.9832398216084016</v>
+        <v>0.9929952794274401</v>
       </c>
       <c r="C87">
         <v>0.9671933784800602</v>
       </c>
       <c r="D87">
-        <v>0.9929872304793802</v>
+        <v>0.9832398216084016</v>
       </c>
       <c r="E87">
+        <v>0.9086979690923085</v>
+      </c>
+      <c r="F87">
         <v>0.7945477622647756</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>0.9260877917587168</v>
       </c>
-      <c r="G87">
-        <v>0.9087301587301587</v>
-      </c>
       <c r="H87">
-        <v>0.9347292741026131</v>
+        <v>0.9347260554465475</v>
       </c>
       <c r="I87">
         <v>1.011295548529867</v>
@@ -3806,25 +3800,25 @@
         <v>44330</v>
       </c>
       <c r="B88">
-        <v>0.9917278089483527</v>
+        <v>1.023450586264657</v>
       </c>
       <c r="C88">
         <v>0.9841484825683471</v>
       </c>
       <c r="D88">
-        <v>1.023445677203265</v>
+        <v>0.9917278089483527</v>
       </c>
       <c r="E88">
+        <v>0.9464148262182486</v>
+      </c>
+      <c r="F88">
         <v>0.8231333811599801</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>0.9557679377581405</v>
       </c>
-      <c r="G88">
-        <v>0.9464285714285714</v>
-      </c>
       <c r="H88">
-        <v>0.9594564531675795</v>
+        <v>0.9594553731983093</v>
       </c>
       <c r="I88">
         <v>1.024923395386604</v>
@@ -3838,25 +3832,25 @@
         <v>44333</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>1.050129435054058</v>
       </c>
       <c r="C89">
         <v>0.9980938048658139</v>
       </c>
       <c r="D89">
-        <v>1.05013606866234</v>
+        <v>1</v>
       </c>
       <c r="E89">
+        <v>0.940493812540707</v>
+      </c>
+      <c r="F89">
         <v>0.8330666078031014</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>1.002449332436846</v>
       </c>
-      <c r="G89">
-        <v>0.9404761904761904</v>
-      </c>
       <c r="H89">
-        <v>0.9761401040697608</v>
+        <v>0.9761414206577819</v>
       </c>
       <c r="I89">
         <v>1.033143765381782</v>
@@ -3870,25 +3864,25 @@
         <v>44334</v>
       </c>
       <c r="B90">
-        <v>1.004100129477773</v>
+        <v>1.042546063651591</v>
       </c>
       <c r="C90">
         <v>1.000551793328317</v>
       </c>
       <c r="D90">
-        <v>1.042565068732119</v>
+        <v>1.004100129477773</v>
       </c>
       <c r="E90">
+        <v>0.9493753330570193</v>
+      </c>
+      <c r="F90">
         <v>0.8532641686441146</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>1.003361828834886</v>
       </c>
-      <c r="G90">
-        <v>0.9494047619047618</v>
-      </c>
       <c r="H90">
-        <v>0.9803204225487903</v>
+        <v>0.9803122072055234</v>
       </c>
       <c r="I90">
         <v>1.036514211314081</v>
@@ -3902,25 +3896,25 @@
         <v>44335</v>
       </c>
       <c r="B91">
-        <v>0.993094518774277</v>
+        <v>1.050860362418151</v>
       </c>
       <c r="C91">
         <v>1.005467770253323</v>
       </c>
       <c r="D91">
-        <v>1.050868746074942</v>
+        <v>0.993094518774277</v>
       </c>
       <c r="E91">
+        <v>0.9364675232399786</v>
+      </c>
+      <c r="F91">
         <v>0.8566856133767452</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>1.040149841513784</v>
       </c>
-      <c r="G91">
-        <v>0.9365079365079364</v>
-      </c>
       <c r="H91">
-        <v>0.9846143272176121</v>
+        <v>0.9846065884960603</v>
       </c>
       <c r="I91">
         <v>1.034125372421711</v>
@@ -3934,25 +3928,25 @@
         <v>44336</v>
       </c>
       <c r="B92">
-        <v>1.014674147604661</v>
+        <v>1.060606060606061</v>
       </c>
       <c r="C92">
         <v>1.008577878103837</v>
       </c>
       <c r="D92">
-        <v>1.06060288884237</v>
+        <v>1.014674147604661</v>
       </c>
       <c r="E92">
+        <v>0.9484279708686126</v>
+      </c>
+      <c r="F92">
         <v>0.8585618895204459</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>1.044616271251561</v>
       </c>
-      <c r="G92">
-        <v>0.9484126984126983</v>
-      </c>
       <c r="H92">
-        <v>0.9940807178826875</v>
+        <v>0.9940836431038129</v>
       </c>
       <c r="I92">
         <v>1.028521574152166</v>
@@ -3966,25 +3960,25 @@
         <v>44337</v>
       </c>
       <c r="B93">
-        <v>1.013739030355344</v>
+        <v>1.050403532815593</v>
       </c>
       <c r="C93">
         <v>1.006471030850263</v>
       </c>
       <c r="D93">
-        <v>1.050415183867141</v>
+        <v>1.013739030355344</v>
       </c>
       <c r="E93">
+        <v>0.9335070164012078</v>
+      </c>
+      <c r="F93">
         <v>0.8425583577065283</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>1.040437998271059</v>
       </c>
-      <c r="G93">
-        <v>0.9335317460317458</v>
-      </c>
       <c r="H93">
-        <v>0.9862807127734368</v>
+        <v>0.9862746731185463</v>
       </c>
       <c r="I93">
         <v>1.025246933066964</v>
@@ -3998,25 +3992,25 @@
         <v>44340</v>
       </c>
       <c r="B94">
-        <v>1.013163573586534</v>
+        <v>1.05929648241206</v>
       </c>
       <c r="C94">
         <v>1.005618259342864</v>
       </c>
       <c r="D94">
-        <v>1.059311981020166</v>
+        <v>1.013163573586534</v>
       </c>
       <c r="E94">
+        <v>0.9345135887263899</v>
+      </c>
+      <c r="F94">
         <v>0.8551404447878153</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>1.046825473057343</v>
       </c>
-      <c r="G94">
-        <v>0.9345238095238094</v>
-      </c>
       <c r="H94">
-        <v>0.990811308928115</v>
+        <v>0.9908066760868809</v>
       </c>
       <c r="I94">
         <v>1.027800681942043</v>
@@ -4030,25 +4024,25 @@
         <v>44341</v>
       </c>
       <c r="B95">
-        <v>1.019421665947346</v>
+        <v>1.088868585350997</v>
       </c>
       <c r="C95">
         <v>1.019262603461249</v>
       </c>
       <c r="D95">
-        <v>1.088863303328449</v>
+        <v>1.019421665947346</v>
       </c>
       <c r="E95">
+        <v>0.9712238735271479</v>
+      </c>
+      <c r="F95">
         <v>0.8821808950940897</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>1.060320814523101</v>
       </c>
-      <c r="G95">
-        <v>0.9712301587301587</v>
-      </c>
       <c r="H95">
-        <v>1.011606164626448</v>
+        <v>1.011606278250507</v>
       </c>
       <c r="I95">
         <v>1.0396663478407</v>
@@ -4062,25 +4056,25 @@
         <v>44342</v>
       </c>
       <c r="B96">
-        <v>1.031650122284563</v>
+        <v>1.078635602253693</v>
       </c>
       <c r="C96">
         <v>1.02242287434161</v>
       </c>
       <c r="D96">
-        <v>1.07864070895262</v>
+        <v>1.031650122284563</v>
       </c>
       <c r="E96">
+        <v>0.9741843803659186</v>
+      </c>
+      <c r="F96">
         <v>0.8798631422106947</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>1.051195850542695</v>
       </c>
-      <c r="G96">
-        <v>0.9742063492063491</v>
-      </c>
       <c r="H96">
-        <v>1.011211398692639</v>
+        <v>1.011207082026789</v>
       </c>
       <c r="I96">
         <v>1.041007615700059</v>
@@ -4094,25 +4088,25 @@
         <v>44343</v>
       </c>
       <c r="B97">
-        <v>1.048554164868364</v>
+        <v>1.088655398203137</v>
       </c>
       <c r="C97">
         <v>1.031452219714071</v>
       </c>
       <c r="D97">
-        <v>1.088653966924848</v>
+        <v>1.048554164868364</v>
       </c>
       <c r="E97">
+        <v>0.9712238735271479</v>
+      </c>
+      <c r="F97">
         <v>0.8824016334639369</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>1.054605705503794</v>
       </c>
-      <c r="G97">
-        <v>0.9712301587301587</v>
-      </c>
       <c r="H97">
-        <v>1.018395083970437</v>
+        <v>1.018394427445643</v>
       </c>
       <c r="I97">
         <v>1.049991283329486</v>
@@ -4126,25 +4120,25 @@
         <v>44344</v>
       </c>
       <c r="B98">
-        <v>1.035606387570134</v>
+        <v>1.091152733363789</v>
       </c>
       <c r="C98">
         <v>1.026536242789065</v>
       </c>
       <c r="D98">
-        <v>1.091166003768055</v>
+        <v>1.035606387570134</v>
       </c>
       <c r="E98">
+        <v>0.9741843803659186</v>
+      </c>
+      <c r="F98">
         <v>0.8886926770045803</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>1.100230525405821</v>
       </c>
-      <c r="G98">
-        <v>0.9742063492063491</v>
-      </c>
       <c r="H98">
-        <v>1.02380434742851</v>
+        <v>1.023798398021592</v>
       </c>
       <c r="I98">
         <v>1.047283618470546</v>
@@ -4158,25 +4152,25 @@
         <v>44347</v>
       </c>
       <c r="B99">
-        <v>1.034671270320817</v>
+        <v>1.117009288868585</v>
       </c>
       <c r="C99">
         <v>1.023727113117632</v>
       </c>
       <c r="D99">
-        <v>1.117019049612728</v>
+        <v>1.034671270320817</v>
       </c>
       <c r="E99">
+        <v>0.96228314287406</v>
+      </c>
+      <c r="F99">
         <v>0.9136361127973069</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>1.15565267505523</v>
       </c>
-      <c r="G99">
-        <v>0.9623015873015872</v>
-      </c>
       <c r="H99">
-        <v>1.038635687227472</v>
+        <v>1.038630968414515</v>
       </c>
       <c r="I99">
         <v>1.0568358328975</v>
@@ -4190,25 +4184,25 @@
         <v>44348</v>
       </c>
       <c r="B100">
-        <v>1.031578190188462</v>
+        <v>1.114146490025887</v>
       </c>
       <c r="C100">
         <v>1.028643090042639</v>
       </c>
       <c r="D100">
-        <v>1.11415811876352</v>
+        <v>1.031578190188462</v>
       </c>
       <c r="E100">
+        <v>0.9474213985434307</v>
+      </c>
+      <c r="F100">
         <v>0.90568953148281</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>1.144894822783594</v>
       </c>
-      <c r="G100">
-        <v>0.9474206349206348</v>
-      </c>
       <c r="H100">
-        <v>1.033144473674848</v>
+        <v>1.033142262470741</v>
       </c>
       <c r="I100">
         <v>1.058527338148705</v>
@@ -4222,25 +4216,25 @@
         <v>44349</v>
       </c>
       <c r="B101">
-        <v>1.029420227305424</v>
+        <v>1.095020557332115</v>
       </c>
       <c r="C101">
         <v>1.020466516177577</v>
       </c>
       <c r="D101">
-        <v>1.095038727234666</v>
+        <v>1.029420227305424</v>
       </c>
       <c r="E101">
+        <v>0.9474213985434307</v>
+      </c>
+      <c r="F101">
         <v>0.8835053253131725</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>1.139131687638075</v>
       </c>
-      <c r="G101">
-        <v>0.9474206349206348</v>
-      </c>
       <c r="H101">
-        <v>1.023470415515437</v>
+        <v>1.023466896078346</v>
       </c>
       <c r="I101">
         <v>1.049366195966459</v>
@@ -4254,25 +4248,25 @@
         <v>44350</v>
       </c>
       <c r="B102">
-        <v>1.029276363113221</v>
+        <v>1.081193848028019</v>
       </c>
       <c r="C102">
         <v>1.0159016804615</v>
       </c>
       <c r="D102">
-        <v>1.081187635196427</v>
+        <v>1.029276363113221</v>
       </c>
       <c r="E102">
+        <v>0.9394872402155249</v>
+      </c>
+      <c r="F102">
         <v>0.8694884388278792</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>1.133560656997407</v>
       </c>
-      <c r="G102">
-        <v>0.939484126984127</v>
-      </c>
       <c r="H102">
-        <v>1.015858035152567</v>
+        <v>1.015859744703595</v>
       </c>
       <c r="I102">
         <v>1.047214513334935</v>
@@ -4286,25 +4280,25 @@
         <v>44351</v>
       </c>
       <c r="B103">
-        <v>1.033951949359804</v>
+        <v>1.095142378559464</v>
       </c>
       <c r="C103">
         <v>1.016955104088287</v>
       </c>
       <c r="D103">
-        <v>1.095143395436466</v>
+        <v>1.033951949359804</v>
       </c>
       <c r="E103">
+        <v>0.9503819053822014</v>
+      </c>
+      <c r="F103">
         <v>0.8796424038408477</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>1.162376332725003</v>
       </c>
-      <c r="G103">
-        <v>0.9503968253968254</v>
-      </c>
       <c r="H103">
-        <v>1.027224668866899</v>
+        <v>1.027222227489304</v>
       </c>
       <c r="I103">
         <v>1.051192770346358</v>
@@ -4318,25 +4312,25 @@
         <v>44354</v>
       </c>
       <c r="B104">
-        <v>1.031722054380664</v>
+        <v>1.090239074158672</v>
       </c>
       <c r="C104">
         <v>1.016102332580888</v>
       </c>
       <c r="D104">
-        <v>1.090258879352453</v>
+        <v>1.031722054380664</v>
       </c>
       <c r="E104">
+        <v>0.9464148262182486</v>
+      </c>
+      <c r="F104">
         <v>0.8929970752165995</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>1.137114590337144</v>
       </c>
-      <c r="G104">
-        <v>0.9464285714285714</v>
-      </c>
       <c r="H104">
-        <v>1.023292572181104</v>
+        <v>1.023286549360799</v>
       </c>
       <c r="I104">
         <v>1.055659475020849</v>
@@ -4350,25 +4344,25 @@
         <v>44355</v>
       </c>
       <c r="B105">
-        <v>1.02754999280679</v>
+        <v>1.083691183188671</v>
       </c>
       <c r="C105">
         <v>1.018008527715074</v>
       </c>
       <c r="D105">
-        <v>1.083699672039634</v>
+        <v>1.02754999280679</v>
       </c>
       <c r="E105">
+        <v>0.9484279708686126</v>
+      </c>
+      <c r="F105">
         <v>0.9001710722366315</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>1.128710018249928</v>
       </c>
-      <c r="G105">
-        <v>0.9484126984126983</v>
-      </c>
       <c r="H105">
-        <v>1.021545280461435</v>
+        <v>1.021545873559629</v>
       </c>
       <c r="I105">
         <v>1.049857784772055</v>
@@ -4382,25 +4376,25 @@
         <v>44356</v>
       </c>
       <c r="B106">
-        <v>1.022802474464106</v>
+        <v>1.083417085427136</v>
       </c>
       <c r="C106">
         <v>1.014095811387008</v>
       </c>
       <c r="D106">
-        <v>1.083420556834834</v>
+        <v>1.022802474464106</v>
       </c>
       <c r="E106">
+        <v>0.9484279708686126</v>
+      </c>
+      <c r="F106">
         <v>0.9075658076265107</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>1.127413312842186</v>
       </c>
-      <c r="G106">
-        <v>0.9484126984126983</v>
-      </c>
       <c r="H106">
-        <v>1.020867750800048</v>
+        <v>1.020869347386896</v>
       </c>
       <c r="I106">
         <v>1.051167641206136</v>
@@ -4414,25 +4408,25 @@
         <v>44357</v>
       </c>
       <c r="B107">
-        <v>1.030139548266436</v>
+        <v>1.109730470534491</v>
       </c>
       <c r="C107">
         <v>1.020617005267118</v>
       </c>
       <c r="D107">
-        <v>1.109727164887307</v>
+        <v>1.030139548266436</v>
       </c>
       <c r="E107">
+        <v>0.9364675232399786</v>
+      </c>
+      <c r="F107">
         <v>0.9134153744274598</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>1.169964460666603</v>
       </c>
-      <c r="G107">
-        <v>0.9365079365079364</v>
-      </c>
       <c r="H107">
-        <v>1.034049059161116</v>
+        <v>1.034043658300359</v>
       </c>
       <c r="I107">
         <v>1.062591976579641</v>
@@ -4446,25 +4440,25 @@
         <v>44358</v>
       </c>
       <c r="B108">
-        <v>1.021004172061574</v>
+        <v>1.114816506776306</v>
       </c>
       <c r="C108">
         <v>1.018560321043391</v>
       </c>
       <c r="D108">
-        <v>1.114821017374922</v>
+        <v>1.021004172061574</v>
       </c>
       <c r="E108">
+        <v>0.9216057789093492</v>
+      </c>
+      <c r="F108">
         <v>0.8810772032448541</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>1.182163096724618</v>
       </c>
-      <c r="G108">
-        <v>0.9216269841269842</v>
-      </c>
       <c r="H108">
-        <v>1.027679178658276</v>
+        <v>1.027675095755908</v>
       </c>
       <c r="I108">
         <v>1.056353667519487</v>
@@ -4478,25 +4472,25 @@
         <v>44362</v>
       </c>
       <c r="B109">
-        <v>1.013954826643648</v>
+        <v>1.102543018120907</v>
       </c>
       <c r="C109">
         <v>1.012340105342363</v>
       </c>
       <c r="D109">
-        <v>1.102539948363687</v>
+        <v>1.013954826643648</v>
       </c>
       <c r="E109">
+        <v>0.9047308899283557</v>
+      </c>
+      <c r="F109">
         <v>0.8755587439986755</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>1.177408510229565</v>
       </c>
-      <c r="G109">
-        <v>0.9047619047619047</v>
-      </c>
       <c r="H109">
-        <v>1.018809344651343</v>
+        <v>1.018805306377755</v>
       </c>
       <c r="I109">
         <v>1.046575290830534</v>
@@ -4510,25 +4504,25 @@
         <v>44363</v>
       </c>
       <c r="B110">
-        <v>1.007121277514027</v>
+        <v>1.056494594183036</v>
       </c>
       <c r="C110">
         <v>0.9926761976423376</v>
       </c>
       <c r="D110">
-        <v>1.056485939571558</v>
+        <v>1.007121277514027</v>
       </c>
       <c r="E110">
+        <v>0.9067440345787199</v>
+      </c>
+      <c r="F110">
         <v>0.8591137354450636</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>1.10147920468735</v>
       </c>
-      <c r="G110">
-        <v>0.9067460317460317</v>
-      </c>
       <c r="H110">
-        <v>0.9917237188452344</v>
+        <v>0.9917251501924332</v>
       </c>
       <c r="I110">
         <v>1.031282638434078</v>
@@ -4542,25 +4536,25 @@
         <v>44364</v>
       </c>
       <c r="B111">
-        <v>1.005107178823191</v>
+        <v>1.077874219582762</v>
       </c>
       <c r="C111">
         <v>0.9942312515675946</v>
       </c>
       <c r="D111">
-        <v>1.077873142139418</v>
+        <v>1.005107178823191</v>
       </c>
       <c r="E111">
+        <v>0.8948427970868613</v>
+      </c>
+      <c r="F111">
         <v>0.8712543457866563</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>1.133128421861493</v>
       </c>
-      <c r="G111">
-        <v>0.8948412698412698</v>
-      </c>
       <c r="H111">
-        <v>1.000614357551074</v>
+        <v>1.000614802126581</v>
       </c>
       <c r="I111">
         <v>1.03911664789834</v>
@@ -4574,25 +4568,25 @@
         <v>44365</v>
       </c>
       <c r="B112">
-        <v>1.003093080132355</v>
+        <v>1.094990102025278</v>
       </c>
       <c r="C112">
         <v>1.007875595685979</v>
       </c>
       <c r="D112">
-        <v>1.095003837834066</v>
+        <v>1.003093080132355</v>
       </c>
       <c r="E112">
+        <v>0.8888625732725443</v>
+      </c>
+      <c r="F112">
         <v>0.8929970752165995</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>1.187926231870138</v>
       </c>
-      <c r="G112">
-        <v>0.8888888888888888</v>
-      </c>
       <c r="H112">
-        <v>1.016272552342525</v>
+        <v>1.016265857838316</v>
       </c>
       <c r="I112">
         <v>1.045648653784841</v>
@@ -4606,25 +4600,25 @@
         <v>44368</v>
       </c>
       <c r="B113">
-        <v>1.006330024456913</v>
+        <v>1.105558093497792</v>
       </c>
       <c r="C113">
         <v>1.003812390268372</v>
       </c>
       <c r="D113">
-        <v>1.105575326215896</v>
+        <v>1.006330024456913</v>
       </c>
       <c r="E113">
+        <v>0.8829415595950026</v>
+      </c>
+      <c r="F113">
         <v>0.9267700458032118</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>1.192968975122467</v>
       </c>
-      <c r="G113">
-        <v>0.8829365079365079</v>
-      </c>
       <c r="H113">
-        <v>1.023354258004145</v>
+        <v>1.023351569209299</v>
       </c>
       <c r="I113">
         <v>1.053410416970965</v>
@@ -4638,25 +4632,25 @@
         <v>44369</v>
       </c>
       <c r="B114">
-        <v>1.0168321104877</v>
+        <v>1.109395462159281</v>
       </c>
       <c r="C114">
         <v>1.009129671432154</v>
       </c>
       <c r="D114">
-        <v>1.109413160281906</v>
+        <v>1.0168321104877</v>
       </c>
       <c r="E114">
+        <v>0.8918822902480904</v>
+      </c>
+      <c r="F114">
         <v>0.9202582638927211</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>1.193593314763231</v>
       </c>
-      <c r="G114">
-        <v>0.8918650793650793</v>
-      </c>
       <c r="H114">
-        <v>1.027476003571899</v>
+        <v>1.027475045579826</v>
       </c>
       <c r="I114">
         <v>1.058532049862497</v>
@@ -4670,25 +4664,25 @@
         <v>44370</v>
       </c>
       <c r="B115">
-        <v>1.018990073370738</v>
+        <v>1.121851682655703</v>
       </c>
       <c r="C115">
         <v>1.025532982192124</v>
       </c>
       <c r="D115">
-        <v>1.121868676296141</v>
+        <v>1.018990073370738</v>
       </c>
       <c r="E115">
+        <v>0.897803303925632</v>
+      </c>
+      <c r="F115">
         <v>0.9259974615087467</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>1.227211603112093</v>
       </c>
-      <c r="G115">
-        <v>0.8978174603174602</v>
-      </c>
       <c r="H115">
-        <v>1.03965567600294</v>
+        <v>1.039650153816078</v>
       </c>
       <c r="I115">
         <v>1.066410035322148</v>
@@ -4702,25 +4696,25 @@
         <v>44371</v>
       </c>
       <c r="B116">
-        <v>1.01294777729823</v>
+        <v>1.108542713567839</v>
       </c>
       <c r="C116">
         <v>1.019663907700025</v>
       </c>
       <c r="D116">
-        <v>1.108540925266904</v>
+        <v>1.01294777729823</v>
       </c>
       <c r="E116">
+        <v>0.897803303925632</v>
+      </c>
+      <c r="F116">
         <v>0.9213619557419568</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>1.212563634617232</v>
       </c>
-      <c r="G116">
-        <v>0.8978174603174602</v>
-      </c>
       <c r="H116">
-        <v>1.032008784269528</v>
+        <v>1.032007018470941</v>
       </c>
       <c r="I116">
         <v>1.060900471328436</v>
@@ -4734,25 +4728,25 @@
         <v>44372</v>
       </c>
       <c r="B117">
-        <v>1.028197381671702</v>
+        <v>1.131749657377798</v>
       </c>
       <c r="C117">
         <v>1.022222222222222</v>
       </c>
       <c r="D117">
-        <v>1.131742376665969</v>
+        <v>1.028197381671702</v>
       </c>
       <c r="E117">
+        <v>0.9077506069039019</v>
+      </c>
+      <c r="F117">
         <v>0.9235693394404282</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>1.235616175199308</v>
       </c>
-      <c r="G117">
-        <v>0.9077380952380952</v>
-      </c>
       <c r="H117">
-        <v>1.045359826482542</v>
+        <v>1.045363159374779</v>
       </c>
       <c r="I117">
         <v>1.070094595507224</v>
@@ -4766,31 +4760,319 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.028197381671702</v>
+        <v>1.153707933607431</v>
       </c>
       <c r="C118">
-        <v>1.022222222222222</v>
+        <v>1.030900426385754</v>
       </c>
       <c r="D118">
-        <v>1.131742376665969</v>
+        <v>1.021435764638182</v>
       </c>
       <c r="E118">
-        <v>0.9235693394404282</v>
+        <v>0.8958493694120433</v>
       </c>
       <c r="F118">
-        <v>1.235616175199308</v>
+        <v>0.9280944760222946</v>
       </c>
       <c r="G118">
-        <v>0.9077380952380952</v>
+        <v>1.267217366247239</v>
       </c>
       <c r="H118">
-        <v>1.045359826482542</v>
+        <v>1.053337985359222</v>
       </c>
       <c r="I118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="J118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.151454240901477</v>
+      </c>
+      <c r="C119">
+        <v>1.017557060446451</v>
+      </c>
+      <c r="D119">
+        <v>1.013954826643648</v>
+      </c>
+      <c r="E119">
+        <v>0.8848954941085914</v>
+      </c>
+      <c r="F119">
+        <v>0.9071243308868163</v>
+      </c>
+      <c r="G119">
+        <v>1.270194986072424</v>
+      </c>
+      <c r="H119">
+        <v>1.045047594236167</v>
+      </c>
+      <c r="I119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="J119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.175422567382366</v>
+      </c>
+      <c r="C120">
+        <v>1.019162277401555</v>
+      </c>
+      <c r="D120">
+        <v>1.024241116386131</v>
+      </c>
+      <c r="E120">
+        <v>0.8869086387589555</v>
+      </c>
+      <c r="F120">
+        <v>0.9243419237348932</v>
+      </c>
+      <c r="G120">
+        <v>1.303813274421285</v>
+      </c>
+      <c r="H120">
+        <v>1.060066653901203</v>
+      </c>
+      <c r="I120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="J120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.16805238312776</v>
+      </c>
+      <c r="C121">
+        <v>1.014246300476549</v>
+      </c>
+      <c r="D121">
+        <v>1.031074665515753</v>
+      </c>
+      <c r="E121">
+        <v>0.8898691455977262</v>
+      </c>
+      <c r="F121">
+        <v>0.8917830141824403</v>
+      </c>
+      <c r="G121">
+        <v>1.286667947363366</v>
+      </c>
+      <c r="H121">
+        <v>1.052210370871715</v>
+      </c>
+      <c r="I121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="J121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.127059540124867</v>
+      </c>
+      <c r="C122">
+        <v>0.9962377727614747</v>
+      </c>
+      <c r="D122">
+        <v>1.009926629261977</v>
+      </c>
+      <c r="E122">
+        <v>0.8631061637752383</v>
+      </c>
+      <c r="F122">
+        <v>0.858782627890293</v>
+      </c>
+      <c r="G122">
+        <v>1.282105465373163</v>
+      </c>
+      <c r="H122">
+        <v>1.027432038347394</v>
+      </c>
+      <c r="I122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="J122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.133272422719659</v>
+      </c>
+      <c r="C123">
+        <v>0.9941810885377477</v>
+      </c>
+      <c r="D123">
+        <v>0.9974823766364551</v>
+      </c>
+      <c r="E123">
+        <v>0.866066670614009</v>
+      </c>
+      <c r="F123">
+        <v>0.8650736714309365</v>
+      </c>
+      <c r="G123">
+        <v>1.317500720391893</v>
+      </c>
+      <c r="H123">
+        <v>1.032574282517411</v>
+      </c>
+      <c r="I123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="J123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.112989188366073</v>
+      </c>
+      <c r="C124">
+        <v>0.9964885879107097</v>
+      </c>
+      <c r="D124">
+        <v>1.002589555459646</v>
+      </c>
+      <c r="E124">
+        <v>0.8799218426194564</v>
+      </c>
+      <c r="F124">
+        <v>0.8669499475746371</v>
+      </c>
+      <c r="G124">
+        <v>1.319085582556911</v>
+      </c>
+      <c r="H124">
+        <v>1.032482642864401</v>
+      </c>
+      <c r="I124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="J124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.152702908481803</v>
+      </c>
+      <c r="C125">
+        <v>1.008176573865061</v>
+      </c>
+      <c r="D125">
+        <v>1.010645950222989</v>
+      </c>
+      <c r="E125">
+        <v>0.8740008289419148</v>
+      </c>
+      <c r="F125">
+        <v>0.8992881187572429</v>
+      </c>
+      <c r="G125">
+        <v>1.392997790798194</v>
+      </c>
+      <c r="H125">
+        <v>1.058839268595321</v>
+      </c>
+      <c r="I125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="J125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.160864930714177</v>
+      </c>
+      <c r="C126">
+        <v>0.9972410333584149</v>
+      </c>
+      <c r="D126">
+        <v>1.008775715724356</v>
+      </c>
+      <c r="E126">
+        <v>0.8551720054473325</v>
+      </c>
+      <c r="F126">
+        <v>0.9335025660835494</v>
+      </c>
+      <c r="G126">
+        <v>1.415810200749208</v>
+      </c>
+      <c r="H126">
+        <v>1.064187000133482</v>
+      </c>
+      <c r="I126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="J126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.152946550936501</v>
+      </c>
+      <c r="C127">
+        <v>1.000953097567093</v>
+      </c>
+      <c r="D127">
+        <v>0.9976981729247589</v>
+      </c>
+      <c r="E127">
+        <v>0.8491917816330155</v>
+      </c>
+      <c r="F127">
+        <v>0.9261078306936703</v>
+      </c>
+      <c r="G127">
+        <v>1.439919316107963</v>
+      </c>
+      <c r="H127">
+        <v>1.062554748672513</v>
+      </c>
+      <c r="I127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="J127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4902,18 +5184,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -4945,254 +5227,233 @@
       <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>0.2</v>
       </c>
       <c r="J2">
-        <v>21.55</v>
+        <v>9.165599822998047</v>
       </c>
       <c r="K2">
-        <v>4.32</v>
+        <v>61.3849983215332</v>
       </c>
       <c r="L2">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="M2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>18.3094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>0.15</v>
       </c>
       <c r="J3">
-        <v>34.32</v>
+        <v>2.928299903869629</v>
       </c>
       <c r="K3">
-        <v>3.01</v>
+        <v>33.26729965209961</v>
       </c>
       <c r="L3">
-        <v>-5.03</v>
-      </c>
-      <c r="M3">
-        <v>-23.34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>-23.3442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>0.2</v>
       </c>
       <c r="J4">
-        <v>62.06</v>
+        <v>4.20359992980957</v>
       </c>
       <c r="K4">
-        <v>9.26</v>
+        <v>20.93000030517578</v>
       </c>
       <c r="L4">
-        <v>2.89</v>
-      </c>
-      <c r="M4">
-        <v>18.31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>1.5999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>0.15</v>
       </c>
       <c r="J5">
-        <v>49.91</v>
+        <v>1.080199956893921</v>
       </c>
       <c r="K5">
-        <v>6.27</v>
+        <v>9.924599647521973</v>
       </c>
       <c r="L5">
-        <v>6.14</v>
-      </c>
-      <c r="M5">
-        <v>12.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>-10.1588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>0.15</v>
       </c>
       <c r="J6">
-        <v>133.48</v>
+        <v>6.202899932861328</v>
       </c>
       <c r="K6">
-        <v>9.199999999999999</v>
+        <v>49.53079986572266</v>
       </c>
       <c r="L6">
-        <v>4.83</v>
-      </c>
-      <c r="M6">
-        <v>38.77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.0293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>0.15</v>
       </c>
       <c r="J7">
-        <v>10.59</v>
+        <v>10.4798002243042</v>
       </c>
       <c r="K7">
-        <v>1.14</v>
+        <v>152.8901977539062</v>
       </c>
       <c r="L7">
-        <v>7.93</v>
-      </c>
-      <c r="M7">
-        <v>-10.16</v>
+        <v>38.7678</v>
       </c>
     </row>
   </sheetData>
@@ -5210,19 +5471,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5230,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
         <v>127</v>
@@ -5250,10 +5511,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
         <v>128</v>
@@ -5270,10 +5531,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
         <v>129</v>
@@ -5290,10 +5551,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
         <v>130</v>
@@ -5310,10 +5571,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>131</v>
@@ -5330,10 +5591,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
         <v>132</v>
@@ -5350,10 +5611,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
         <v>133</v>
@@ -5370,10 +5631,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
         <v>134</v>
@@ -5390,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
         <v>135</v>
@@ -5410,10 +5671,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
         <v>136</v>
@@ -5430,10 +5691,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
         <v>137</v>
@@ -5450,10 +5711,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
         <v>138</v>
@@ -5470,10 +5731,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
         <v>139</v>
@@ -5490,10 +5751,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
         <v>140</v>
@@ -5510,10 +5771,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
         <v>141</v>
@@ -5530,7 +5791,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
         <v>122</v>
@@ -5550,7 +5811,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
         <v>123</v>
@@ -5570,7 +5831,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
         <v>124</v>
@@ -5590,7 +5851,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>125</v>
@@ -5610,7 +5871,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>126</v>
@@ -5632,7 +5893,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5648,134 +5909,112 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
